--- a/examples/plotibcs_plot_ibcs_waterfall.xlsx
+++ b/examples/plotibcs_plot_ibcs_waterfall.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/62a07d598bdbd2d4/Documents/Development Projects/R/plotibcs/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{33CD71A4-6A61-4501-BF8A-94ED4BC140CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9026ACB6-CC0A-443F-A330-27812F69C5C8}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="8_{33CD71A4-6A61-4501-BF8A-94ED4BC140CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D8A93DA-7E23-4757-B641-59E5276AA2D9}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -61,7 +62,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="2">
+  <futureMetadata name="XLRICHVALUE" count="5">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -76,25 +77,55 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="2">
+  <valueMetadata count="5">
     <bk>
       <rc t="2" v="0"/>
     </bk>
     <bk>
       <rc t="2" v="1"/>
     </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+    <bk>
+      <rc t="2" v="4"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>Line Item</t>
   </si>
@@ -105,12 +136,6 @@
     <t>AC</t>
   </si>
   <si>
-    <t>ΔPY</t>
-  </si>
-  <si>
-    <t>ΔPY%</t>
-  </si>
-  <si>
     <t>Licences</t>
   </si>
   <si>
@@ -202,6 +227,18 @@
   </si>
   <si>
     <t>Multi-column chart:</t>
+  </si>
+  <si>
+    <t>invert</t>
+  </si>
+  <si>
+    <t>Pct variance:</t>
+  </si>
+  <si>
+    <t>Absolute variance:</t>
+  </si>
+  <si>
+    <t>All four:</t>
   </si>
 </sst>
 </file>
@@ -292,23 +329,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>153352</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>249917</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>254214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>288314</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>30040</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228027</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>168703</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{136B0B2B-B35F-DE82-7E2A-F4F74360B388}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAFB940A-CBF5-6432-351F-E51F24808B7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -316,7 +353,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Sheet1!C2"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Sheet1!C6"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -329,81 +366,12 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7543799" y="601027"/>
-          <a:ext cx="5669940" cy="5848863"/>
+          <a:off x="8827892" y="254214"/>
+          <a:ext cx="6437592" cy="6505351"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="333333">
-              <a:alpha val="65000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>61914</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{503357E6-E3E0-8208-E541-D49B8E534A9E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-          <a:extLst>
-            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Sheet1!C3"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2090739" y="7077075"/>
-          <a:ext cx="9601200" cy="9601200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="333333">
-              <a:alpha val="65000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -456,7 +424,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
   <rv s="0">
     <v>0</v>
     <v>9</v>
@@ -465,6 +433,18 @@
     <v>1</v>
     <v>9</v>
   </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>4</v>
+    <v>9</v>
+  </rv>
 </rvData>
 </file>
 
@@ -481,21 +461,23 @@
 <richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rel r:id="rId1"/>
   <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+  <rel r:id="rId5"/>
 </richValueRels>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ECAC13D6-CBEB-4C46-AB24-885F042BEC3C}" name="dat" displayName="dat" ref="B8:J34" totalsRowShown="0">
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ECAC13D6-CBEB-4C46-AB24-885F042BEC3C}" name="dat" displayName="dat" ref="B8:I34" totalsRowShown="0">
+  <tableColumns count="8">
     <tableColumn id="11" xr3:uid="{49210ADB-F8E1-46A6-A4B6-1EC8AC478CBC}" name="position"/>
     <tableColumn id="10" xr3:uid="{03B3BFDF-BB4D-4848-9EAD-0999FA028BCF}" name="type"/>
     <tableColumn id="9" xr3:uid="{856519E1-85B5-4143-9EBE-65A488A9BF53}" name="bold"/>
     <tableColumn id="7" xr3:uid="{1E0FC1DB-42DB-466F-BE1B-23FBB35ABABA}" name="subtotal_group"/>
     <tableColumn id="1" xr3:uid="{9A616242-FC4C-4C06-A726-04CAF8008F14}" name="Line Item" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{49BA85FF-3DE2-413D-BCEB-82563DA7BE70}" name="invert"/>
     <tableColumn id="2" xr3:uid="{D45CFECD-B1CA-4164-93A1-51EF5A4CDD52}" name="PY" dataDxfId="0" dataCellStyle="Currency"/>
     <tableColumn id="3" xr3:uid="{88EE803C-E510-4EC6-90B9-0F8427CF137F}" name="AC"/>
-    <tableColumn id="4" xr3:uid="{D1FBCD92-240C-4003-9CCB-94742E841214}" name="ΔPY"/>
-    <tableColumn id="5" xr3:uid="{05178C01-52C9-4B69-BA18-D75D57B8D89C}" name="ΔPY%"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -764,7 +746,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="1228" row="16">
+  <wetp:taskpane dockstate="right" visibility="0" width="1456" row="16">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -781,11 +763,14 @@
     <we:property name="pyworkerConfig" value="&quot;{\&quot;pyodideVersion\&quot;:\&quot;0.26.4\&quot;,\&quot;pyodidePackages\&quot;:[\&quot;numpy\&quot;,\&quot;pandas\&quot;,\&quot;matplotlib\&quot;,\&quot;statsmodels\&quot;,\&quot;scikit-learn\&quot;],\&quot;pyscriptApps\&quot;:[],\&quot;micropipPackages\&quot;:[\&quot;seaborn==0.13.2\&quot;],\&quot;initCode\&quot;:\&quot;# Add imports\\nimport math\\nimport numpy as np\\nimport pandas as pd\\nfrom sklearn.ensemble import IsolationForest\\n\\n# Define UDF\\n@UDF(name='AUDIT.LEDGER', nested=False)\\ndef detect_anomalies(data: UDF.Range) -&gt; UDF.Range:\\n    df = to_df(data)\\n    df_model = df.copy()\\n\\n    # Ensure correct types\\n    df_model['ACCOUNT'] = df_model['ACCOUNT'].astype(str)\\n    df_model['SOURCE'] = df_model['SOURCE'].astype(str)\\n\\n    # Add engineered features\\n    df_model['ABS_AMOUNT'] = df_model['AMOUNT'].abs()\\n    df_model['Z_AMT_BY_ACCOUNT'] = (\\n        df_model.groupby('ACCOUNT')['AMOUNT']\\n        .transform(lambda x: (x - x.mean()) \/ (x.std(ddof=0) + 1e-6))\\n    )\\n\\n    # Encode categorical\\n    df_encoded = pd.get_dummies(df_model[['ACCOUNT', 'SOURCE']])\\n    X = pd.concat([df_model[['AMOUNT', 'ABS_AMOUNT', 'Z_AMT_BY_ACCOUNT']], df_encoded], axis=1)\\n\\n    # Fit model with higher sensitivity\\n    clf = IsolationForest(contamination=0.1, random_state=42)\\n    df_model['ML_ANOMALY'] = clf.fit_predict(X).astype(int)\\n    df_model['ML_ANOMALY'] = df_model['ML_ANOMALY'].map({1: 0, -1: 1})\\n\\n    return df_model\\n\\n\\n# Pre-built utility functions\\ndef to_df(data) -&gt; pd.DataFrame:\\n    \\\&quot;\\\&quot;\\\&quot;\\n    Converts a REF (i.e. list of lists) into a pandas DataFrame\\n    Assumes that the first row contains column headers\\n\\n    Usage: df = to_df(REF(\\\&quot;F15:H22\\\&quot;))\\n    \\\&quot;\\\&quot;\\\&quot;\\n    if isinstance(data, pd.DataFrame):\\n        return data\\n    if hasattr(data, '__len__') and len(data) &gt; 0 and is_listlike(data[0]):\\n        return pd.DataFrame(data[1:], columns=data[0])\\n    raise TypeError('Expected list of lists')\\n\\ndef to_array(data) -&gt; np.ndarray:\\n    \\\&quot;\\\&quot;\\\&quot;\\n    Converts a REF (i.e. list of lists) into a 2-dimensional numpy array\\n\\n    Usage: arr = to_array(REF(\\\&quot;B3:C44\\\&quot;))\\n    \\\&quot;\\\&quot;\\\&quot;\\n    if isinstance(data, np.ndarray):\\n        return data\\n    return np.array(data)\\n\\ndef to_list(data) -&gt; list:\\n    \\\&quot;\\\&quot;\\\&quot;\\n    Converts a REF (i.e. list of lists) into a 1-d list.\\n    Handles wide (1xn) or tall (nx1) data.\\n\\n    Usage: x = to_list(REF(\\\&quot;G1:G55\\\&quot;))\\n    \\\&quot;\\\&quot;\\\&quot;\\n    if not is_listlike(data): # data is scalar\\n        return [data]\\n    if len(data) == 0 or not is_listlike(data[0]): # already a 1-d list\\n        return list(data)\\n    if len(data) == 1: # data is wide\\n        return list(data[0])\\n    elif len(data[0]) == 1: #data is tall\\n        return [x[0] for x in data]\\n    else:\\n        raise TypeError(f\\\&quot;data must be 1xn or nx1, not {len(data)}x{len(data[0])}\\\&quot;)\\n\\ndef is_listlike(x) -&gt; bool:\\n    return hasattr(x, '__len__') and type(x) not in {str, bytes}\\n\\n\&quot;}&quot;"/>
     <we:property name="registeredUDFs" value="&quot;[[\&quot;AUDIT.LEDGER\&quot;,false,\&quot;detect_anomalies\&quot;,{\&quot;parameters\&quot;:[{\&quot;dimensionality\&quot;:\&quot;matrix\&quot;,\&quot;description\&quot;:\&quot;type Range\&quot;,\&quot;name\&quot;:\&quot;data\&quot;}],\&quot;result\&quot;:{\&quot;dimensionality\&quot;:\&quot;matrix\&quot;},\&quot;options\&quot;:{\&quot;requiresAddress\&quot;:true,\&quot;requiresParameterAddresses\&quot;:true}}]]&quot;"/>
     <we:property name="AnacondaCodeActiveInterpreter" value="&quot;r&quot;"/>
-    <we:property name="rworkerConfig" value="&quot;{\&quot;webrVersion\&quot;:\&quot;0.4.2\&quot;,\&quot;webrPackages\&quot;:[\&quot;jsonlite\&quot;,\&quot;sloop\&quot;,\&quot;tidyverse\&quot;,\&quot;patchwork\&quot;],\&quot;initCode\&quot;:\&quot;## Add imports\\nlibrary(tidyverse)\\nlibrary(patchwork)\\n\\n## Configuration\\noptions(warnPartialMatchDollar = TRUE)\\n\\n## Define functions\\nplot_ibcs_waterfall &lt;- function(\\n  df_raw,\\n  title = \\\&quot;Waterfall Chart\\\&quot;,\\n  value_col = \\\&quot;Value\\\&quot;,\\n  label_col = \\\&quot;Line.Item\\\&quot;\\n) {\\n\\n  # Rename user-specified columns to fixed internal names\\n  df_raw &lt;- df_raw %&gt;%\\n    rename(\\n      Value = all_of(value_col),\\n      `Line.Item` = all_of(label_col)\\n    )\\n\\n  cols &lt;- c(\\\&quot;position\\\&quot;, \\\&quot;type\\\&quot;, \\\&quot;bold\\\&quot;, \\\&quot;subtotal_group\\\&quot;, \\\&quot;Line.Item\\\&quot;, \\\&quot;Value\\\&quot;)\\n  df_raw &lt;- df_raw %&gt;% select(all_of(cols))\\n\\n  # Flag the rows that will be for plotting bars\\n  df &lt;- df_raw %&gt;% mutate(is_plot_row = type != \\\&quot;divider\\\&quot;)\\n\\n  # Assign vertical positions only to non-divider rows\\n  df$x[df$type != \\\&quot;divider\\\&quot;] &lt;- seq_len(sum(df$type != \\\&quot;divider\\\&quot;))\\n\\n  # Compute start\/end for all types\\n  anchor &lt;- 0\\n  for (i in seq_len(nrow(df))) {\\n    row_type &lt;- df$type[i]\\n\\n    if (row_type == \\\&quot;bar\\\&quot;) {\\n      df$start[i] &lt;- anchor\\n      df$end[i] &lt;- anchor + df$Value[i]\\n      anchor &lt;- df$end[i]\\n\\n    } else if (row_type == \\\&quot;subtotal\\\&quot;) {\\n      group_id &lt;- df$subtotal_group[i]\\n      bar_rows &lt;- which(df$subtotal_group == group_id &amp; df$type == \\\&quot;bar\\\&quot;)\\n      if (length(bar_rows) &gt; 0) {\\n        subtotal_value &lt;- sum(df$Value[bar_rows], na.rm = TRUE)\\n        df$Value[i] &lt;- subtotal_value\\n        group_start &lt;- df$start[bar_rows[1]]\\n        df$start[i] &lt;- group_start\\n        df$end[i] &lt;- group_start + subtotal_value\\n        anchor &lt;- df$end[i]\\n      }\\n\\n    } else if (row_type == \\\&quot;result\\\&quot;) {\\n      df$start[i] &lt;- 0\\n      df$end[i] &lt;- anchor\\n      df$Value[i] &lt;- anchor\\n      anchor &lt;- df$end[i]\\n    }\\n  }\\n\\n  # calculate the coordinates for non-subtotal and non-result connecting lines\\n  df_lines &lt;- df %&gt;%\\n    filter(type != \\\&quot;divider\\\&quot;) %&gt;%\\n    arrange(x) %&gt;%\\n    mutate(\\n      x_next = lead(x),\\n      xend = lead(start)\\n    ) %&gt;%\\n    filter(!is.na(x_next)) %&gt;%\\n    transmute(\\n      y = x - 0.3, # from the vertical top of the current bar\\n      yend = x_next + 0.3, # to the vertical bottom of the next bar\\n      x = xend,\\n      xend\\n    )\\n\\n  # Assign fill colors to drawn bars\\n  # Positive bars are gray with 70% transparency\\n  # Negative bars are gray with 30% transparency\\n  df &lt;- df %&gt;%\\n    mutate(\\n      fill = case_when(\\n        type == \\\&quot;divider\\\&quot; ~ NA_character_,\\n        Value &gt;= 0 ~ \\\&quot;gray70\\\&quot;,\\n        TRUE ~ \\\&quot;gray30\\\&quot;\\n      )\\n    )\\n\\n  # Format the bar labels\\n  # Currently zero decimal places\\n  # Negative bars have their labels to the left of the bar\\n  # Positive bars have their labels to the right of the bar\\n  # Negative bars don't use the minus symbol\\n  df_labels &lt;- df %&gt;%\\n    filter(type != \\\&quot;divider\\\&quot;) %&gt;%\\n    mutate(\\n      label = format(round(abs(Value), 0), nsmall = 0),\\n      label_x = if_else(Value &gt;= 0, end + 5, end - 5),\\n      hjust = if_else(Value &gt;= 0, 0, 1)\\n    )\\n\\n  # this will be used to extend the x-axis to allow space for bar labels\\n  # x_max &lt;- max(df_labels$label_x, na.rm = TRUE) + 100  # 10 is padding\\n\\n  # divider_ys is a numeric vector of vertical positions\\n  # at which horizontal lines will be drawn to separate\\n  # bars from one another at the user's discretion\\n  divider_ys &lt;- df %&gt;%\\n    mutate(idx = row_number()) %&gt;%\\n    filter(type == \\\&quot;divider\\\&quot;) %&gt;%\\n    mutate(\\n      prev_x = df$x[idx - 1],\\n      next_x = df$x[idx + 1],\\n      y = (prev_x + next_x) \/ 2\\n    ) %&gt;%\\n    pull(y) # extracts this tibble column to a vector\\n\\n  df_subtotals &lt;- df %&gt;% filter(type == \\\&quot;subtotal\\\&quot;)\\n\\n  # Apply a function over a list of integers from 1 to count of sub total rows\\n  df_sub_connectors &lt;- bind_rows(lapply(seq_len(nrow(df_subtotals)), function(i) {\\n    # Get the current row\\n    subtotal_row &lt;- df_subtotals[i, ]\\n    # Get the current group id\\n    group_id &lt;- subtotal_row$subtotal_group\\n    # Get the bar rows from df whose group id matches the current subtotal row\\n    bar_rows &lt;- df %&gt;% filter(type == \\\&quot;bar\\\&quot;, subtotal_group == group_id)\\n\\n    # If there are no such bars, then this subtotal is invalid (user incorrectly defined)\\n    if (nrow(bar_rows) &lt; 1) return(NULL)\\n\\n    # There are two lines which visually connect a subtotal with its components:\\n    # 1) A line from the bottom (i.e. left) of the first bar in the group\\n    # to the bottom (i.e. left) of the sub-total bar\\n    # 2) A line from the top (i.e. right) of the last bar in the group\\n    # to the top (i.e. right) of the sub-total bar\\n    first_bar &lt;- bar_rows[1, ]\\n    last_bar &lt;- bar_rows[nrow(bar_rows), ]\\n\\n    # Each sub-total produces two rows representing the lines connecting the \\n    # bars with their associated sub-total bar\\n    tibble(\\n      x = c(first_bar$start, last_bar$end),\\n      xend = c(first_bar$start, last_bar$end),\\n      y = c(first_bar$x - 0.3, last_bar$x - 0.3),\\n      yend = c(subtotal_row$x + 0.3, subtotal_row$x + 0.3)\\n    )\\n  }))\\n\\n  df_results &lt;- df %&gt;% filter(type == \\\&quot;result\\\&quot;)\\n\\n  # The logic here follows similar logic to the sub-total bars described above\\n  # the slight difference is that since a result is always from zero\\n  # only one connecting line is needed - it connects the top of the previous bar\\n  # (subtotal or otherwise) with the current result bar\\n  df_result_connectors &lt;- bind_rows(lapply(seq_len(nrow(df_results)), function(i) {\\n    result_row &lt;- df_results[i, ]\\n    if (result_row$x == 1) return(NULL)\\n\\n    prev_row &lt;- df %&gt;% filter(x == result_row$x - 1)\\n    if (nrow(prev_row) == 0) return(NULL)\\n\\n    tibble(\\n      x = prev_row$end,\\n      xend = result_row$end,\\n      y = prev_row$x - 0.3,\\n      yend = result_row$x + 0.3\\n    )\\n  }))\\n\\n  # This places all the coordinates of the three types of connecting lines\\n  # into a single tibble so they can all be drawn at once.\\n  df_connectors &lt;- bind_rows(df_lines, df_sub_connectors, df_result_connectors)\\n\\n  ggplot(df %&gt;% filter(type != \\\&quot;divider\\\&quot;)) +\\n    # draw the bars\\n    geom_rect(aes(ymin = x - 0.3, ymax = x + 0.3, xmin = start, xmax = end, fill = fill),\\n              color = NA) +\\n    # draw the connecting lines\\n    geom_segment(\\n      data = df_connectors,\\n      aes(x = x, xend = xend, y = y, yend = yend),\\n      color = \\\&quot;gray70\\\&quot;,\\n      linewidth = 0.2,\\n      inherit.aes = FALSE\\n    ) +\\n    # draw the bar labels\\n    geom_segment(data = df_labels,\\n                 aes(x = label_x, y = x, xend = label_x, yend = x),\\n                 color = \\\&quot;red\\\&quot;, linewidth = 0.2) +\\n    # draw the bar labels\\n    geom_text(data = df_labels,\\n              aes(x = label_x, y = x, label = label, hjust = hjust, fontface = ifelse(bold, \\\&quot;bold\\\&quot;, \\\&quot;plain\\\&quot;)),\\n              size = 3) +\\n    # draw the dividing lines\\n    geom_segment(\\n      data = tibble(y = divider_ys),\\n      aes(x = -Inf, xend = Inf, y = y, yend = y),\\n      linewidth = 0.2,\\n      color = \\\&quot;black\\\&quot;,\\n      inherit.aes = FALSE\\n    ) +\\n    # draw a vertical line at x=0\\n    geom_vline(xintercept = 0, color = \\\&quot;black\\\&quot;, linewidth = 0.2) +\\n    # ensure that the bars are all plotted on the y-axis\\n    # this has the effect of rotating the bar plot from vertical to horizontal bars\\n    scale_y_reverse(\\n      breaks = df$x[df$type != \\\&quot;divider\\\&quot;],\\n      labels = function(labs) {\\n        idx &lt;- match(labs, df$x)\\n        mapply(function(text, bold) {\\n          if (isTRUE(bold)) parse(text = paste0(\\\&quot;bold('\\\&quot;, text, \\\&quot;')\\\&quot;))\\n          else text\\n        }, df$`Line.Item`[idx], df$bold[idx])\\n      }\\n    ) +\\n    coord_cartesian(clip = \\\&quot;off\\\&quot;) +\\n    # scale_x_continuous(expand = expansion(mult = c(0, 0)), limits = c(0, x_max)) +\\n    scale_fill_identity() +\\n    labs(\\n      title = title,\\n      x = NULL,\\n      y = NULL\\n    ) +\\n    theme_minimal(base_size = 11) +\\n    theme(\\n      panel.grid = element_blank(),\\n      plot.title = element_text(hjust = 0.5, face = \\\&quot;bold\\\&quot;)\\n    )\\n}\\n\\n\\n\\n## Pre-built utility functions\\n\\n# Convert to tibble or data.frame\\nto_dataframe &lt;- function(x, as_tibble=TRUE) {\\n  if (inherits(x, \\\&quot;data.frame\\\&quot;)) {\\n    return(x)\\n  }\\n  if (!is_list_of_lists(x)) {\\n    stop(\\\&quot;Expected list of lists\\\&quot;)\\n  }\\n\\n  # Get column names from first row if available\\n  if (length(x) &gt; 1) {\\n    col_names &lt;- x[[1]]\\n    data_rows &lt;- x[-1]\\n  } else {\\n    data_rows &lt;- x\\n    col_names &lt;- paste0(\\\&quot;V\\\&quot;, seq_len(length(x[[1]])))\\n  }\\n  # Convert to column-wise list preserving data types\\n  cols &lt;- to_colwise_list(data_rows)\\n  names(cols) &lt;- col_names\\n\\n  # Create data frame preserving column types\\n  df &lt;- as.data.frame(cols, stringsAsFactors = FALSE)\\n\\n  if (as_tibble) {\\n    if (!requireNamespace(\\\&quot;dplyr\\\&quot;, quietly = TRUE)) {\\n      warning(\\\&quot;Package 'dplyr' needed for tibble conversion\\\&quot;)\\n    } else {\\n      return(dplyr::as_tibble(df))\\n    }\\n  }\\n  return(df)\\n}\\n\\n\\n# Convert to matrix\\nto_matrix &lt;- function(x) {\\n  if (is.matrix(x)) {\\n    return(x)\\n  }\\n  if (!is_list_of_lists(x)) {\\n    stop(\\\&quot;Expected list of lists\\\&quot;)\\n  }\\n  return(do.call(rbind, lapply(x, unlist)))\\n}\\n\\n# Convert to colwise list of vectors\\n# to_colwise_list &lt;- function(x) {\\n#   if (!is_list_of_lists(x)) {\\n#     stop(\\\&quot;Expected list of lists\\\&quot;)\\n#   }\\n\\n#   ncols &lt;- length(x[[1]])\\n#   print(ncols)\\n#   print(seq_len(ncols))\\n#   lapply(seq_len(ncols), function(j) {\\n#     print(j)\\n#     do.call(c, lapply(seq_along(x), function(i) x[[i]][[j]]))\\n#   })\\n# }\\n\\nto_colwise_list &lt;- function(x) {\\n  if (!is_list_of_lists(x)) {\\n    stop(\\\&quot;Expected list of lists\\\&quot;)\\n  }\\n\\n  ncols &lt;- length(x[[1]])\\n  lapply(seq_len(ncols), function(j) {\\n    do.call(c, lapply(seq_along(x), function(i) {\\n      val &lt;- x[[i]][[j]]\\n      if (is.null(val)) NA else val\\n    }))\\n  })\\n}\\n\\n\\n\\nis_list_of_lists &lt;- function(x) {\\n  is.list(x) &amp;&amp; length(x) &gt; 0 &amp;&amp; is.list(x[[1]])\\n}\\n\\n\&quot;}&quot;"/>
+    <we:property name="rworkerConfig" value="&quot;{\&quot;webrVersion\&quot;:\&quot;0.4.2\&quot;,\&quot;webrPackages\&quot;:[\&quot;jsonlite\&quot;,\&quot;sloop\&quot;,\&quot;tidyverse\&quot;,\&quot;patchwork\&quot;],\&quot;initCode\&quot;:\&quot;## Add imports\\nlibrary(tidyverse)\\nlibrary(patchwork)\\n\\n## Configuration\\noptions(warnPartialMatchDollar = TRUE)\\n\\n## Define functions\\nplot_ibcs_waterfall &lt;- function(\\n  df_raw,\\n  title = \\\&quot;Waterfall Chart\\\&quot;,\\n  value_col = \\\&quot;Value\\\&quot;,\\n  label_col = \\\&quot;Line.Item\\\&quot;\\n) {\\n\\n  # Rename user-specified columns to fixed internal names\\n  df_raw &lt;- df_raw %&gt;%\\n    rename(\\n      Value = all_of(value_col),\\n      `Line.Item` = all_of(label_col)\\n    )\\n\\n  cols &lt;- c(\\\&quot;position\\\&quot;, \\\&quot;type\\\&quot;, \\\&quot;bold\\\&quot;, \\\&quot;subtotal_group\\\&quot;, \\\&quot;Line.Item\\\&quot;, \\\&quot;Value\\\&quot;)\\n  df_raw &lt;- df_raw %&gt;% select(all_of(cols))\\n\\n  # Flag the rows that will be for plotting bars\\n  df &lt;- df_raw %&gt;% mutate(is_plot_row = type != \\\&quot;divider\\\&quot;)\\n\\n  # Assign vertical positions only to non-divider rows\\n  df$x[df$type != \\\&quot;divider\\\&quot;] &lt;- seq_len(sum(df$type != \\\&quot;divider\\\&quot;))\\n\\n  # Compute start\/end for all types\\n  anchor &lt;- 0\\n  for (i in seq_len(nrow(df))) {\\n    row_type &lt;- df$type[i]\\n\\n    if (row_type == \\\&quot;bar\\\&quot;) {\\n      df$start[i] &lt;- anchor\\n      df$end[i] &lt;- anchor + df$Value[i]\\n      anchor &lt;- df$end[i]\\n\\n    } else if (row_type == \\\&quot;subtotal\\\&quot;) {\\n      group_id &lt;- df$subtotal_group[i]\\n      bar_rows &lt;- which(df$subtotal_group == group_id &amp; df$type == \\\&quot;bar\\\&quot;)\\n      if (length(bar_rows) &gt; 0) {\\n        subtotal_value &lt;- sum(df$Value[bar_rows], na.rm = TRUE)\\n        df$Value[i] &lt;- subtotal_value\\n        group_start &lt;- df$start[bar_rows[1]]\\n        df$start[i] &lt;- group_start\\n        df$end[i] &lt;- group_start + subtotal_value\\n        anchor &lt;- df$end[i]\\n      }\\n\\n    } else if (row_type == \\\&quot;result\\\&quot;) {\\n      df$start[i] &lt;- 0\\n      df$end[i] &lt;- anchor\\n      df$Value[i] &lt;- anchor\\n      anchor &lt;- df$end[i]\\n    }\\n  }\\n\\n  # calculate the coordinates for non-subtotal and non-result connecting lines\\n  df_lines &lt;- df %&gt;%\\n    filter(type != \\\&quot;divider\\\&quot;) %&gt;%\\n    arrange(x) %&gt;%\\n    mutate(\\n      x_next = lead(x),\\n      xend = lead(start)\\n    ) %&gt;%\\n    filter(!is.na(x_next)) %&gt;%\\n    transmute(\\n      y = x - 0.3, # from the vertical top of the current bar\\n      yend = x_next + 0.3, # to the vertical bottom of the next bar\\n      x = xend,\\n      xend\\n    )\\n\\n  # Assign fill colors to drawn bars\\n  # Positive bars are gray with 70% transparency\\n  # Negative bars are gray with 30% transparency\\n  df &lt;- df %&gt;%\\n    mutate(\\n      fill = case_when(\\n        type == \\\&quot;divider\\\&quot; ~ NA_character_,\\n        Value &gt;= 0 ~ \\\&quot;gray70\\\&quot;,\\n        TRUE ~ \\\&quot;gray30\\\&quot;\\n      )\\n    )\\n\\n  # Format the bar labels\\n  # Currently zero decimal places\\n  # Negative bars have their labels to the left of the bar\\n  # Positive bars have their labels to the right of the bar\\n  # Negative bars don't use the minus symbol\\n  df_labels &lt;- df %&gt;%\\n    filter(type != \\\&quot;divider\\\&quot;) %&gt;%\\n    mutate(\\n      label = format(round(abs(Value), 0), nsmall = 0),\\n      label_x = if_else(Value &gt;= 0, end + 5, end - 5),\\n      hjust = if_else(Value &gt;= 0, 0, 1)\\n    )\\n\\n  # this will be used to extend the x-axis to allow space for bar labels\\n  # x_max &lt;- max(df_labels$label_x, na.rm = TRUE) + 100  # 10 is padding\\n\\n  # divider_ys is a numeric vector of vertical positions\\n  # at which horizontal lines will be drawn to separate\\n  # bars from one another at the user's discretion\\n  divider_ys &lt;- df %&gt;%\\n    mutate(idx = row_number()) %&gt;%\\n    filter(type == \\\&quot;divider\\\&quot;) %&gt;%\\n    mutate(\\n      prev_x = df$x[idx - 1],\\n      next_x = df$x[idx + 1],\\n      y = (prev_x + next_x) \/ 2\\n    ) %&gt;%\\n    pull(y) # extracts this tibble column to a vector\\n\\n  df_subtotals &lt;- df %&gt;% filter(type == \\\&quot;subtotal\\\&quot;)\\n\\n  # Apply a function over a list of integers from 1 to count of sub total rows\\n  df_sub_connectors &lt;- bind_rows(lapply(seq_len(nrow(df_subtotals)), function(i) {\\n    # Get the current row\\n    subtotal_row &lt;- df_subtotals[i, ]\\n    # Get the current group id\\n    group_id &lt;- subtotal_row$subtotal_group\\n    # Get the bar rows from df whose group id matches the current subtotal row\\n    bar_rows &lt;- df %&gt;% filter(type == \\\&quot;bar\\\&quot;, subtotal_group == group_id)\\n\\n    # If there are no such bars, then this subtotal is invalid (user incorrectly defined)\\n    if (nrow(bar_rows) &lt; 1) return(NULL)\\n\\n    # There are two lines which visually connect a subtotal with its components:\\n    # 1) A line from the bottom (i.e. left) of the first bar in the group\\n    # to the bottom (i.e. left) of the sub-total bar\\n    # 2) A line from the top (i.e. right) of the last bar in the group\\n    # to the top (i.e. right) of the sub-total bar\\n    first_bar &lt;- bar_rows[1, ]\\n    last_bar &lt;- bar_rows[nrow(bar_rows), ]\\n\\n    # Each sub-total produces two rows representing the lines connecting the \\n    # bars with their associated sub-total bar\\n    tibble(\\n      x = c(first_bar$start, last_bar$end),\\n      xend = c(first_bar$start, last_bar$end),\\n      y = c(first_bar$x - 0.3, last_bar$x - 0.3),\\n      yend = c(subtotal_row$x + 0.3, subtotal_row$x + 0.3)\\n    )\\n  }))\\n\\n  df_results &lt;- df %&gt;% filter(type == \\\&quot;result\\\&quot;)\\n\\n  # The logic here follows similar logic to the sub-total bars described above\\n  # the slight difference is that since a result is always from zero\\n  # only one connecting line is needed - it connects the top of the previous bar\\n  # (subtotal or otherwise) with the current result bar\\n  df_result_connectors &lt;- bind_rows(lapply(seq_len(nrow(df_results)), function(i) {\\n    result_row &lt;- df_results[i, ]\\n    if (result_row$x == 1) return(NULL)\\n\\n    prev_row &lt;- df %&gt;% filter(x == result_row$x - 1)\\n    if (nrow(prev_row) == 0) return(NULL)\\n\\n    tibble(\\n      x = prev_row$end,\\n      xend = result_row$end,\\n      y = prev_row$x - 0.3,\\n      yend = result_row$x + 0.3\\n    )\\n  }))\\n\\n  # This places all the coordinates of the three types of connecting lines\\n  # into a single tibble so they can all be drawn at once.\\n  df_connectors &lt;- bind_rows(df_lines, df_sub_connectors, df_result_connectors)\\n\\n  ggplot(df %&gt;% filter(type != \\\&quot;divider\\\&quot;)) +\\n    # draw the bars\\n    geom_rect(aes(ymin = x - 0.3, ymax = x + 0.3, xmin = start, xmax = end, fill = fill),\\n              color = NA) +\\n    # draw the connecting lines\\n    geom_segment(\\n      data = df_connectors,\\n      aes(x = x, xend = xend, y = y, yend = yend),\\n      color = \\\&quot;gray70\\\&quot;,\\n      linewidth = 0.2,\\n      inherit.aes = FALSE\\n    ) +\\n    # draw the bar labels\\n    geom_segment(data = df_labels,\\n                 aes(x = label_x, y = x, xend = label_x, yend = x),\\n                 color = \\\&quot;red\\\&quot;, linewidth = 0.2) +\\n    # draw the bar labels\\n    geom_text(data = df_labels,\\n              aes(x = label_x, y = x, label = label, hjust = hjust, fontface = ifelse(bold, \\\&quot;bold\\\&quot;, \\\&quot;plain\\\&quot;)),\\n              size = 3) +\\n    # draw the dividing lines\\n    geom_segment(\\n      data = tibble(y = divider_ys),\\n      aes(x = -Inf, xend = Inf, y = y, yend = y),\\n      linewidth = 0.2,\\n      color = \\\&quot;black\\\&quot;,\\n      inherit.aes = FALSE\\n    ) +\\n    # draw a vertical line at x=0\\n    geom_vline(xintercept = 0, color = \\\&quot;black\\\&quot;, linewidth = 0.2) +\\n    # ensure that the bars are all plotted on the y-axis\\n    # this has the effect of rotating the bar plot from vertical to horizontal bars\\n    scale_y_reverse(\\n      breaks = df$x[df$type != \\\&quot;divider\\\&quot;],\\n      labels = function(labs) {\\n        idx &lt;- match(labs, df$x)\\n        mapply(function(text, bold) {\\n          if (isTRUE(bold)) parse(text = paste0(\\\&quot;bold('\\\&quot;, text, \\\&quot;')\\\&quot;))\\n          else text\\n        }, df$`Line.Item`[idx], df$bold[idx])\\n      }\\n    ) +\\n    coord_cartesian(clip = \\\&quot;off\\\&quot;) +\\n    # scale_x_continuous(expand = expansion(mult = c(0, 0)), limits = c(0, x_max)) +\\n    scale_fill_identity() +\\n    labs(\\n      title = title,\\n      x = NULL,\\n      y = NULL\\n    ) +\\n    theme_minimal(base_size = 11) +\\n    theme(\\n      panel.grid = element_blank(),\\n      plot.title = element_text(hjust = 0.5, face = \\\&quot;bold\\\&quot;)\\n    )\\n}\\n\\nplot_ibcs_variance &lt;- function(\\n    df_raw,\\n    title = \\\&quot;Var.\\\&quot;,\\n    from_col = \\\&quot;Value1\\\&quot;,\\n    to_col = \\\&quot;Value2\\\&quot;,\\n    label_col = \\\&quot;Line.Item\\\&quot;,\\n    var_type = \\\&quot;abs\\\&quot;\\n) {\\n\\n  # Rename user-specified columns to fixed internal names\\n  df_raw &lt;- df_raw %&gt;%\\n    rename(\\n      Value1 = all_of(from_col),\\n      Value2 = all_of(to_col),\\n      `Line.Item` = all_of(label_col)\\n    )\\n\\n  cols &lt;- c(\\\&quot;position\\\&quot;, \\\&quot;type\\\&quot;, \\\&quot;bold\\\&quot;, \\\&quot;subtotal_group\\\&quot;, \\\&quot;Line.Item\\\&quot;, \\\&quot;invert\\\&quot;, \\\&quot;Value1\\\&quot;, \\\&quot;Value2\\\&quot;)\\n  df_raw &lt;- df_raw %&gt;% select(all_of(cols))\\n\\n  # Flag the rows that will be for plotting bars\\n  df &lt;- df_raw %&gt;% mutate(is_plot_row = type != \\\&quot;divider\\\&quot;)\\n\\n  # Assign vertical positions only to non-divider rows\\n  df$x[df$type != \\\&quot;divider\\\&quot;] &lt;- seq_len(sum(df$type != \\\&quot;divider\\\&quot;))\\n\\n  # Compute start\/end for all types\\n  # anchor is always zero for a variance chart, on all bar types (bar, subtotal and result)\\n  anchor &lt;- 0\\n  df &lt;- df %&gt;%\\n    mutate(\\n      end = if (var_type == \\\&quot;abs\\\&quot;) {\\n        (Value2 - Value1) * if_else(invert, -1, 1)\\n      } else {\\n        (100 * (Value2 - Value1) \/ Value1)\\n      },\\n      start = anchor\\n    )\\n\\n\\n\\n  for (i in seq_len(nrow(df))) {\\n    row_type &lt;- df$type[i]\\n    invert &lt;- df$invert[i]\\n    if (row_type == \\\&quot;subtotal\\\&quot;) {\\n      group_id &lt;- df$subtotal_group[i]\\n\\n      bar_rows &lt;- which(df$subtotal_group == group_id &amp; df$type == \\\&quot;bar\\\&quot;)\\n      if (length(bar_rows) &gt; 0) {\\n        val1 &lt;- sum(df$Value1[bar_rows], na.rm = TRUE)\\n        val2 &lt;- sum(df$Value2[bar_rows], na.rm = TRUE)\\n        df$Value1[i] &lt;- val1\\n        df$Value2[i] &lt;- val2\\n        df$end[i] = if (var_type == \\\&quot;abs\\\&quot;) {\\n          (val2 - val1) * if_else(invert, -1, 1)\\n        } else {\\n          (100 * (val2 - val1) \/ val1)\\n        }\\n      }\\n\\n    } else if (row_type == \\\&quot;result\\\&quot;) {\\n      # Get all rows above this one that are bars\\n      bar_rows_above &lt;- df[1:(i - 1), ] %&gt;% filter(type == \\\&quot;bar\\\&quot;)\\n      total_var &lt;- if (var_type == \\\&quot;abs\\\&quot;) {\\n        sum(bar_rows_above$end * if_else(bar_rows_above$invert, -1, 1), na.rm = TRUE)\\n      } else {\\n        val1 &lt;- sum(bar_rows_above$Value1)\\n        (100 * (sum(bar_rows_above$Value2) - val1) \/ val1) * if_else(invert, -1, 1)\\n      }\\n\\n      df$start[i] &lt;- anchor\\n      df$end[i] &lt;- total_var\\n\\n    }\\n  }\\n\\n  bad_color &lt;- \\\&quot;indianred3\\\&quot;   # softer than \\\&quot;red\\\&quot;\\n  good_color &lt;- \\\&quot;chartreuse3\\\&quot;  # softer than \\\&quot;green\\\&quot;\\n\\n  # Assign fill colors to drawn bars\\n  # Positive bars are gray with 70% transparency\\n  # Negative bars are gray with 30% transparency\\n  df &lt;- df %&gt;%\\n    mutate(\\n      fill = case_when(\\n        type == \\\&quot;divider\\\&quot; ~ NA_character_,\\n        is.na(end) ~ NA_character_,\\n        invert &amp; end &gt;= 0 ~ bad_color,       # Expense ↑ → bad\\n        invert &amp; end &lt; 0 ~ good_color,      # Expense ↓ → good\\n        !invert &amp; end &gt;= 0 ~ good_color,    # Income ↑ → good\\n        TRUE ~ bad_color                     # Income ↓ → bad\\n      )\\n    )\\n\\n\\n  # Format the bar labels\\n  # Currently zero decimal places\\n  # Negative bars have their labels to the left of the bar\\n  # Positive bars have their labels to the right of the bar\\n  # Negative bars don't use the minus symbol\\n  df_labels &lt;- df %&gt;%\\n    filter(type != \\\&quot;divider\\\&quot;) %&gt;%\\n    mutate(\\n      label = formatC(round(end, 0), format = \\\&quot;f\\\&quot;, digits = 0, flag = \\\&quot;+\\\&quot;),\\n      label_x = if_else(end &gt;= 0, end + 5, end - 5),\\n      hjust = if_else(end &gt;= 0, 0, 1)\\n    )\\n\\n  # this will be used to extend the x-axis to allow space for bar labels\\n  # x_max &lt;- max(df_labels$label_x, na.rm = TRUE) + 100  # 10 is padding\\n\\n  # divider_ys is a numeric vector of vertical positions\\n  # at which horizontal lines will be drawn to separate\\n  # bars from one another at the user's discretion\\n  divider_ys &lt;- df %&gt;%\\n    mutate(idx = row_number()) %&gt;%\\n    filter(type == \\\&quot;divider\\\&quot;) %&gt;%\\n    mutate(\\n      prev_x = df$x[idx - 1],\\n      next_x = df$x[idx + 1],\\n      y = (prev_x + next_x) \/ 2\\n    ) %&gt;%\\n    pull(y) # extracts this tibble column to a vector\\n\\n  ggplot(df %&gt;% filter(type != \\\&quot;divider\\\&quot;)) +\\n    # draw the bars\\n    geom_rect(aes(ymin = x - 0.3, ymax = x + 0.3, xmin = start, xmax = end, fill = fill),\\n              color = NA) +\\n    # draw the bar labels\\n    geom_text(data = df_labels,\\n              aes(x = label_x, y = x, label = label, hjust = hjust, fontface = ifelse(bold, \\\&quot;bold\\\&quot;, \\\&quot;plain\\\&quot;)),\\n              size = 3) +\\n    # draw the dividing lines\\n    geom_segment(\\n      data = tibble(y = divider_ys),\\n      aes(x = -Inf, xend = Inf, y = y, yend = y),\\n      linewidth = 0.2,\\n      color = \\\&quot;black\\\&quot;,\\n      inherit.aes = FALSE\\n    ) +\\n    # draw a vertical line at x=0\\n    geom_vline(xintercept = 0, color = \\\&quot;black\\\&quot;, linewidth = 0.2) +\\n    # ensure that the bars are all plotted on the y-axis\\n    # this has the effect of rotating the bar plot from vertical to horizontal bars\\n    scale_y_reverse(\\n      breaks = df$x[df$type != \\\&quot;divider\\\&quot;],\\n      labels = function(labs) {\\n        idx &lt;- match(labs, df$x)\\n        mapply(function(text, bold) {\\n          if (isTRUE(bold)) parse(text = paste0(\\\&quot;bold('\\\&quot;, text, \\\&quot;')\\\&quot;))\\n          else text\\n        }, df$`Line.Item`[idx], df$bold[idx])\\n      }\\n    ) +\\n    coord_cartesian(clip = \\\&quot;off\\\&quot;) +\\n    # scale_x_continuous(expand = expansion(mult = c(0, 0)), limits = c(0, x_max)) +\\n    scale_fill_identity() +\\n    labs(\\n      title = title,\\n      x = NULL,\\n      y = NULL\\n    ) +\\n    theme_minimal(base_size = 11) +\\n    theme(\\n      panel.grid = element_blank(),\\n      plot.title = element_text(hjust = 0.5, face = \\\&quot;bold\\\&quot;)\\n    )\\n}\\n\\n## Pre-built utility functions\\n\\n# Convert to tibble or data.frame\\nto_dataframe &lt;- function(x, as_tibble=TRUE) {\\n  if (inherits(x, \\\&quot;data.frame\\\&quot;)) {\\n    return(x)\\n  }\\n  if (!is_list_of_lists(x)) {\\n    stop(\\\&quot;Expected list of lists\\\&quot;)\\n  }\\n\\n  # Get column names from first row if available\\n  if (length(x) &gt; 1) {\\n    col_names &lt;- x[[1]]\\n    data_rows &lt;- x[-1]\\n  } else {\\n    data_rows &lt;- x\\n    col_names &lt;- paste0(\\\&quot;V\\\&quot;, seq_len(length(x[[1]])))\\n  }\\n  # Convert to column-wise list preserving data types\\n  cols &lt;- to_colwise_list(data_rows)\\n  names(cols) &lt;- col_names\\n\\n  # Create data frame preserving column types\\n  df &lt;- as.data.frame(cols, stringsAsFactors = FALSE)\\n\\n  if (as_tibble) {\\n    if (!requireNamespace(\\\&quot;dplyr\\\&quot;, quietly = TRUE)) {\\n      warning(\\\&quot;Package 'dplyr' needed for tibble conversion\\\&quot;)\\n    } else {\\n      return(dplyr::as_tibble(df))\\n    }\\n  }\\n  return(df)\\n}\\n\\n\\n# Convert to matrix\\nto_matrix &lt;- function(x) {\\n  if (is.matrix(x)) {\\n    return(x)\\n  }\\n  if (!is_list_of_lists(x)) {\\n    stop(\\\&quot;Expected list of lists\\\&quot;)\\n  }\\n  return(do.call(rbind, lapply(x, unlist)))\\n}\\n\\n# Convert to colwise list of vectors\\n# to_colwise_list &lt;- function(x) {\\n#   if (!is_list_of_lists(x)) {\\n#     stop(\\\&quot;Expected list of lists\\\&quot;)\\n#   }\\n\\n#   ncols &lt;- length(x[[1]])\\n#   print(ncols)\\n#   print(seq_len(ncols))\\n#   lapply(seq_len(ncols), function(j) {\\n#     print(j)\\n#     do.call(c, lapply(seq_along(x), function(i) x[[i]][[j]]))\\n#   })\\n# }\\n\\nto_colwise_list &lt;- function(x) {\\n  if (!is_list_of_lists(x)) {\\n    stop(\\\&quot;Expected list of lists\\\&quot;)\\n  }\\n\\n  ncols &lt;- length(x[[1]])\\n  lapply(seq_len(ncols), function(j) {\\n    do.call(c, lapply(seq_along(x), function(i) {\\n      val &lt;- x[[i]][[j]]\\n      if (is.null(val)) NA else val\\n    }))\\n  })\\n}\\n\\n\\n\\nis_list_of_lists &lt;- function(x) {\\n  is.list(x) &amp;&amp; length(x) &gt; 0 &amp;&amp; is.list(x[[1]])\\n}\\n\\n\&quot;}&quot;"/>
   </we:properties>
   <we:bindings>
     <we:binding id="pyscript_a970bdb0-b52c-4e67-b5b3-96823e097d1f" type="matrix" appref="{E7B16A11-FC0F-40D7-8C7F-63DFEB259E62}"/>
     <we:binding id="pyscript_0d341213-57a3-4279-a2db-b1a51fc6cf69" type="matrix" appref="{AA963FD9-C4C1-4EFB-9D7A-61F8943B2A1A}"/>
+    <we:binding id="pyscript_114d2376-6ee7-4e12-88c4-6046dc473f48" type="matrix" appref="{2B38050A-B29C-4DC9-A27A-9B21F3A658E7}"/>
+    <we:binding id="pyscript_e2e573c1-14e9-42ad-b28e-c47eb7b6175c" type="matrix" appref="{0C3E7367-9565-442B-8D1C-81BA88315DF0}"/>
+    <we:binding id="pyscript_8ea4a6f5-85db-4b4d-8fe0-8592d808065e" type="matrix" appref="{A12A9F4C-4D3B-4743-82EE-60005B86D10E}"/>
   </we:bindings>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
@@ -807,33 +792,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BC8714-415D-4AED-B110-97528B9BD033}">
-  <dimension ref="B1:J34"/>
+  <dimension ref="B1:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="13.796875" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="16.1328125" customWidth="1"/>
-    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="15.59765625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="13.19921875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="16.3984375" customWidth="1"/>
+    <col min="7" max="7" width="12.265625" customWidth="1"/>
+    <col min="8" max="8" width="9.06640625" customWidth="1"/>
+    <col min="9" max="9" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="21" x14ac:dyDescent="0.65">
+    <row r="1" spans="2:9" ht="21" x14ac:dyDescent="0.65">
       <c r="B1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" t="e" cm="1" vm="1">
         <f t="array" ref="C2">_xldudf_ANACONDA_CODE("r", "### Do Not Edit this formula directly. Use Anaconda Code to modify.
@@ -847,9 +830,9 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" t="e" cm="1" vm="2">
         <f t="array" ref="C3">_xldudf_ANACONDA_CODE("r", "### Do Not Edit this formula directly. Use Anaconda Code to modify.
@@ -871,70 +854,142 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="e" cm="1" vm="3">
+        <f t="array" ref="C4">_xldudf_ANACONDA_CODE("r", "### Do Not Edit this formula directly. Use Anaconda Code to modify.
+data &lt;- to_dataframe(REF($P3$))
+plot_ibcs_variance(
+  df_raw = data,
+  title = ""Abs. Var."",
+  from_col = ""PY"",
+  to_col = ""AC"",
+  label_col = ""Line.Item"",
+  var_type = ""abs""
+)", 2, dat[#All])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="e" cm="1" vm="4">
+        <f t="array" ref="C5">_xldudf_ANACONDA_CODE("r", "### Do Not Edit this formula directly. Use Anaconda Code to modify.
+data &lt;- to_dataframe(REF($P3$))
+plot_ibcs_variance(
+  df_raw = data,
+  title = ""Abs. Var."",
+  from_col = ""PY"",
+  to_col = ""AC"",
+  label_col = ""Line.Item"",
+  var_type = ""pct""
+)", 2, dat[#All])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="e" cm="1" vm="5">
+        <f t="array" ref="C6">_xldudf_ANACONDA_CODE("r", "### Do Not Edit this formula directly. Use Anaconda Code to modify.
+data &lt;- to_dataframe(REF($P3$))
+py &lt;- plot_ibcs_waterfall(
+  df_raw = data,
+  title = ""PY"",
+  value_col = ""PY"",
+  label_col = ""Line.Item""
+)+ theme(axis.text.x = element_blank())
+c"&amp;"y &lt;- plot_ibcs_waterfall(
+  df_raw = data,
+  title = ""Actuals"",
+  value_col = ""AC"",
+  label_col = ""Line.Item""
+) + theme(axis.text.y = element_blank(), axis.text.x = element_blank())
+var_abs &lt;- plot_ibcs_variance(
+  df_raw = data,
+  title = ""Var."&amp;""",
+  from_col = ""PY"",
+  to_col = ""AC"",
+  label_col = ""Line.Item"",
+  var_type = ""abs""
+) + theme(axis.text.y = element_blank(), axis.text.x = element_blank())
+var_pct &lt;- plot_ibcs_variance(
+  df_raw = data,
+  title = ""%"",
+  from_col = ""PY"",
+ "&amp;" to_col = ""AC"",
+  label_col = ""Line.Item"",
+  var_type = ""pct""
+) + theme(axis.text.y = element_blank(), axis.text.x = element_blank())
+library(patchwork)
+(py | cy | plot_spacer() | var_abs | var_pct | plot_spacer()) + 
+  plot_layout(widths = c(1, 1"&amp;", 0.1, 0.5, 0.5, 0.1))
+", 2, dat[#All])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
         <v>3</v>
       </c>
-      <c r="J8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
         <v>713.3</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>896.4</v>
       </c>
-      <c r="I9">
-        <v>183.10000000000002</v>
-      </c>
-      <c r="J9">
-        <v>25.669423804850702</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -943,27 +998,24 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="2">
+        <v>4</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
         <v>72</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>90</v>
       </c>
-      <c r="I10">
-        <v>18</v>
-      </c>
-      <c r="J10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -972,27 +1024,24 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
         <v>22</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>10</v>
       </c>
-      <c r="I11">
-        <v>-12</v>
-      </c>
-      <c r="J11">
-        <v>-54.545454545454547</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -1001,39 +1050,39 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="2">
         <v>6</v>
       </c>
-      <c r="H12">
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>6</v>
+      </c>
+      <c r="I12">
         <v>65</v>
       </c>
-      <c r="I12">
-        <v>59</v>
-      </c>
-      <c r="J12">
-        <v>983.33333333333337</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1042,42 +1091,42 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="2">
+        <v>7</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
         <v>45</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>17</v>
       </c>
-      <c r="I15">
-        <v>-28</v>
-      </c>
-      <c r="J15">
-        <v>-62.222222222222221</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1086,27 +1135,24 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="2">
+        <v>9</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
         <v>-344.1</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-379.2</v>
       </c>
-      <c r="I16">
-        <v>-35.099999999999966</v>
-      </c>
-      <c r="J16">
-        <v>10.2005231037489</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -1115,27 +1161,24 @@
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="2">
+        <v>10</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
         <v>-11</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-54</v>
       </c>
-      <c r="I17">
-        <v>-43</v>
-      </c>
-      <c r="J17">
-        <v>390.90909090909093</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18">
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -1144,27 +1187,24 @@
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="2">
+        <v>11</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
         <v>-76</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-127.1</v>
       </c>
-      <c r="I18">
-        <v>-51.099999999999994</v>
-      </c>
-      <c r="J18">
-        <v>67.23684210526315</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -1173,27 +1213,24 @@
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="2">
+        <v>12</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
         <v>-56</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>-40</v>
       </c>
-      <c r="I19">
-        <v>16</v>
-      </c>
-      <c r="J19">
-        <v>-28.571428571428573</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20">
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -1202,39 +1239,39 @@
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="2">
+        <v>13</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
         <v>-78</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-152.1</v>
       </c>
-      <c r="I20">
-        <v>-74.099999999999994</v>
-      </c>
-      <c r="J20">
-        <v>94.999999999999986</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B21">
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B22">
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -1243,221 +1280,236 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B23">
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
       </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B24">
         <v>16</v>
       </c>
       <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B25">
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="2">
+        <v>14</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
         <v>43</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>53</v>
       </c>
-      <c r="I25">
-        <v>10</v>
-      </c>
-      <c r="J25">
-        <v>23.255813953488371</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B26">
         <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="2">
+        <v>15</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
         <v>73</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>66</v>
       </c>
-      <c r="I26">
-        <v>-7</v>
-      </c>
-      <c r="J26">
-        <v>-9.5890410958904102</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B27">
         <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
       </c>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B28">
         <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B29">
         <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="2">
+        <v>16</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
         <v>-132.1</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-111</v>
       </c>
-      <c r="I29">
-        <v>21.099999999999994</v>
-      </c>
-      <c r="J29">
-        <v>-15.972747918243751</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B30">
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
       </c>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B31">
         <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B32">
         <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" s="2">
+        <v>17</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
         <v>-89</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-55</v>
       </c>
-      <c r="I32">
-        <v>34</v>
-      </c>
-      <c r="J32">
-        <v>-38.202247191011239</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B33">
         <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B34">
         <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
-      </c>
-      <c r="G34" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1474,6 +1526,21 @@
         <x15:webExtension appRef="{AA963FD9-C4C1-4EFB-9D7A-61F8943B2A1A}">
           <xm:f>Sheet1!$C$2</xm:f>
         </x15:webExtension>
+        <x15:webExtension appRef="{E7B16A11-FC0F-40D7-8C7F-63DFEB259E62}">
+          <xm:f>Sheet1!$C$3</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{AA963FD9-C4C1-4EFB-9D7A-61F8943B2A1A}">
+          <xm:f>Sheet1!$C$2</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{2B38050A-B29C-4DC9-A27A-9B21F3A658E7}">
+          <xm:f>Sheet1!$C$4</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{0C3E7367-9565-442B-8D1C-81BA88315DF0}">
+          <xm:f>Sheet1!$C$5</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{A12A9F4C-4D3B-4743-82EE-60005B86D10E}">
+          <xm:f>Sheet1!$C$6</xm:f>
+        </x15:webExtension>
       </x15:webExtensions>
     </ext>
   </extLst>

--- a/examples/plotibcs_plot_ibcs_waterfall.xlsx
+++ b/examples/plotibcs_plot_ibcs_waterfall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/62a07d598bdbd2d4/Documents/Development Projects/R/plotibcs/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="8_{33CD71A4-6A61-4501-BF8A-94ED4BC140CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D8A93DA-7E23-4757-B641-59E5276AA2D9}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="8_{33CD71A4-6A61-4501-BF8A-94ED4BC140CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CB9E771-14E8-468F-AA75-645538B29914}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -336,7 +335,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>228027</xdr:colOff>
+      <xdr:colOff>228026</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>168703</xdr:rowOff>
     </xdr:to>
@@ -792,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BC8714-415D-4AED-B110-97528B9BD033}">
-  <dimension ref="B1:K34"/>
+  <dimension ref="B1:I34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -806,7 +805,7 @@
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="12.265625" customWidth="1"/>
     <col min="8" max="8" width="9.06640625" customWidth="1"/>
-    <col min="9" max="9" width="15.59765625" customWidth="1"/>
+    <col min="9" max="9" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="21" x14ac:dyDescent="0.65">
@@ -1526,12 +1525,6 @@
         <x15:webExtension appRef="{AA963FD9-C4C1-4EFB-9D7A-61F8943B2A1A}">
           <xm:f>Sheet1!$C$2</xm:f>
         </x15:webExtension>
-        <x15:webExtension appRef="{E7B16A11-FC0F-40D7-8C7F-63DFEB259E62}">
-          <xm:f>Sheet1!$C$3</xm:f>
-        </x15:webExtension>
-        <x15:webExtension appRef="{AA963FD9-C4C1-4EFB-9D7A-61F8943B2A1A}">
-          <xm:f>Sheet1!$C$2</xm:f>
-        </x15:webExtension>
         <x15:webExtension appRef="{2B38050A-B29C-4DC9-A27A-9B21F3A658E7}">
           <xm:f>Sheet1!$C$4</xm:f>
         </x15:webExtension>

--- a/examples/plotibcs_plot_ibcs_waterfall.xlsx
+++ b/examples/plotibcs_plot_ibcs_waterfall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/62a07d598bdbd2d4/Documents/Development Projects/R/plotibcs/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="8_{33CD71A4-6A61-4501-BF8A-94ED4BC140CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CB9E771-14E8-468F-AA75-645538B29914}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="8_{33CD71A4-6A61-4501-BF8A-94ED4BC140CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A91E55CB-27CB-4A2C-B832-7EED98E0A094}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -328,16 +328,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>249917</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>254214</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>436037</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>228026</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>168703</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>58327</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>97540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -365,7 +365,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8827892" y="254214"/>
+          <a:off x="436037" y="1628223"/>
           <a:ext cx="6437592" cy="6505351"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -762,7 +762,7 @@
     <we:property name="pyworkerConfig" value="&quot;{\&quot;pyodideVersion\&quot;:\&quot;0.26.4\&quot;,\&quot;pyodidePackages\&quot;:[\&quot;numpy\&quot;,\&quot;pandas\&quot;,\&quot;matplotlib\&quot;,\&quot;statsmodels\&quot;,\&quot;scikit-learn\&quot;],\&quot;pyscriptApps\&quot;:[],\&quot;micropipPackages\&quot;:[\&quot;seaborn==0.13.2\&quot;],\&quot;initCode\&quot;:\&quot;# Add imports\\nimport math\\nimport numpy as np\\nimport pandas as pd\\nfrom sklearn.ensemble import IsolationForest\\n\\n# Define UDF\\n@UDF(name='AUDIT.LEDGER', nested=False)\\ndef detect_anomalies(data: UDF.Range) -&gt; UDF.Range:\\n    df = to_df(data)\\n    df_model = df.copy()\\n\\n    # Ensure correct types\\n    df_model['ACCOUNT'] = df_model['ACCOUNT'].astype(str)\\n    df_model['SOURCE'] = df_model['SOURCE'].astype(str)\\n\\n    # Add engineered features\\n    df_model['ABS_AMOUNT'] = df_model['AMOUNT'].abs()\\n    df_model['Z_AMT_BY_ACCOUNT'] = (\\n        df_model.groupby('ACCOUNT')['AMOUNT']\\n        .transform(lambda x: (x - x.mean()) \/ (x.std(ddof=0) + 1e-6))\\n    )\\n\\n    # Encode categorical\\n    df_encoded = pd.get_dummies(df_model[['ACCOUNT', 'SOURCE']])\\n    X = pd.concat([df_model[['AMOUNT', 'ABS_AMOUNT', 'Z_AMT_BY_ACCOUNT']], df_encoded], axis=1)\\n\\n    # Fit model with higher sensitivity\\n    clf = IsolationForest(contamination=0.1, random_state=42)\\n    df_model['ML_ANOMALY'] = clf.fit_predict(X).astype(int)\\n    df_model['ML_ANOMALY'] = df_model['ML_ANOMALY'].map({1: 0, -1: 1})\\n\\n    return df_model\\n\\n\\n# Pre-built utility functions\\ndef to_df(data) -&gt; pd.DataFrame:\\n    \\\&quot;\\\&quot;\\\&quot;\\n    Converts a REF (i.e. list of lists) into a pandas DataFrame\\n    Assumes that the first row contains column headers\\n\\n    Usage: df = to_df(REF(\\\&quot;F15:H22\\\&quot;))\\n    \\\&quot;\\\&quot;\\\&quot;\\n    if isinstance(data, pd.DataFrame):\\n        return data\\n    if hasattr(data, '__len__') and len(data) &gt; 0 and is_listlike(data[0]):\\n        return pd.DataFrame(data[1:], columns=data[0])\\n    raise TypeError('Expected list of lists')\\n\\ndef to_array(data) -&gt; np.ndarray:\\n    \\\&quot;\\\&quot;\\\&quot;\\n    Converts a REF (i.e. list of lists) into a 2-dimensional numpy array\\n\\n    Usage: arr = to_array(REF(\\\&quot;B3:C44\\\&quot;))\\n    \\\&quot;\\\&quot;\\\&quot;\\n    if isinstance(data, np.ndarray):\\n        return data\\n    return np.array(data)\\n\\ndef to_list(data) -&gt; list:\\n    \\\&quot;\\\&quot;\\\&quot;\\n    Converts a REF (i.e. list of lists) into a 1-d list.\\n    Handles wide (1xn) or tall (nx1) data.\\n\\n    Usage: x = to_list(REF(\\\&quot;G1:G55\\\&quot;))\\n    \\\&quot;\\\&quot;\\\&quot;\\n    if not is_listlike(data): # data is scalar\\n        return [data]\\n    if len(data) == 0 or not is_listlike(data[0]): # already a 1-d list\\n        return list(data)\\n    if len(data) == 1: # data is wide\\n        return list(data[0])\\n    elif len(data[0]) == 1: #data is tall\\n        return [x[0] for x in data]\\n    else:\\n        raise TypeError(f\\\&quot;data must be 1xn or nx1, not {len(data)}x{len(data[0])}\\\&quot;)\\n\\ndef is_listlike(x) -&gt; bool:\\n    return hasattr(x, '__len__') and type(x) not in {str, bytes}\\n\\n\&quot;}&quot;"/>
     <we:property name="registeredUDFs" value="&quot;[[\&quot;AUDIT.LEDGER\&quot;,false,\&quot;detect_anomalies\&quot;,{\&quot;parameters\&quot;:[{\&quot;dimensionality\&quot;:\&quot;matrix\&quot;,\&quot;description\&quot;:\&quot;type Range\&quot;,\&quot;name\&quot;:\&quot;data\&quot;}],\&quot;result\&quot;:{\&quot;dimensionality\&quot;:\&quot;matrix\&quot;},\&quot;options\&quot;:{\&quot;requiresAddress\&quot;:true,\&quot;requiresParameterAddresses\&quot;:true}}]]&quot;"/>
     <we:property name="AnacondaCodeActiveInterpreter" value="&quot;r&quot;"/>
-    <we:property name="rworkerConfig" value="&quot;{\&quot;webrVersion\&quot;:\&quot;0.4.2\&quot;,\&quot;webrPackages\&quot;:[\&quot;jsonlite\&quot;,\&quot;sloop\&quot;,\&quot;tidyverse\&quot;,\&quot;patchwork\&quot;],\&quot;initCode\&quot;:\&quot;## Add imports\\nlibrary(tidyverse)\\nlibrary(patchwork)\\n\\n## Configuration\\noptions(warnPartialMatchDollar = TRUE)\\n\\n## Define functions\\nplot_ibcs_waterfall &lt;- function(\\n  df_raw,\\n  title = \\\&quot;Waterfall Chart\\\&quot;,\\n  value_col = \\\&quot;Value\\\&quot;,\\n  label_col = \\\&quot;Line.Item\\\&quot;\\n) {\\n\\n  # Rename user-specified columns to fixed internal names\\n  df_raw &lt;- df_raw %&gt;%\\n    rename(\\n      Value = all_of(value_col),\\n      `Line.Item` = all_of(label_col)\\n    )\\n\\n  cols &lt;- c(\\\&quot;position\\\&quot;, \\\&quot;type\\\&quot;, \\\&quot;bold\\\&quot;, \\\&quot;subtotal_group\\\&quot;, \\\&quot;Line.Item\\\&quot;, \\\&quot;Value\\\&quot;)\\n  df_raw &lt;- df_raw %&gt;% select(all_of(cols))\\n\\n  # Flag the rows that will be for plotting bars\\n  df &lt;- df_raw %&gt;% mutate(is_plot_row = type != \\\&quot;divider\\\&quot;)\\n\\n  # Assign vertical positions only to non-divider rows\\n  df$x[df$type != \\\&quot;divider\\\&quot;] &lt;- seq_len(sum(df$type != \\\&quot;divider\\\&quot;))\\n\\n  # Compute start\/end for all types\\n  anchor &lt;- 0\\n  for (i in seq_len(nrow(df))) {\\n    row_type &lt;- df$type[i]\\n\\n    if (row_type == \\\&quot;bar\\\&quot;) {\\n      df$start[i] &lt;- anchor\\n      df$end[i] &lt;- anchor + df$Value[i]\\n      anchor &lt;- df$end[i]\\n\\n    } else if (row_type == \\\&quot;subtotal\\\&quot;) {\\n      group_id &lt;- df$subtotal_group[i]\\n      bar_rows &lt;- which(df$subtotal_group == group_id &amp; df$type == \\\&quot;bar\\\&quot;)\\n      if (length(bar_rows) &gt; 0) {\\n        subtotal_value &lt;- sum(df$Value[bar_rows], na.rm = TRUE)\\n        df$Value[i] &lt;- subtotal_value\\n        group_start &lt;- df$start[bar_rows[1]]\\n        df$start[i] &lt;- group_start\\n        df$end[i] &lt;- group_start + subtotal_value\\n        anchor &lt;- df$end[i]\\n      }\\n\\n    } else if (row_type == \\\&quot;result\\\&quot;) {\\n      df$start[i] &lt;- 0\\n      df$end[i] &lt;- anchor\\n      df$Value[i] &lt;- anchor\\n      anchor &lt;- df$end[i]\\n    }\\n  }\\n\\n  # calculate the coordinates for non-subtotal and non-result connecting lines\\n  df_lines &lt;- df %&gt;%\\n    filter(type != \\\&quot;divider\\\&quot;) %&gt;%\\n    arrange(x) %&gt;%\\n    mutate(\\n      x_next = lead(x),\\n      xend = lead(start)\\n    ) %&gt;%\\n    filter(!is.na(x_next)) %&gt;%\\n    transmute(\\n      y = x - 0.3, # from the vertical top of the current bar\\n      yend = x_next + 0.3, # to the vertical bottom of the next bar\\n      x = xend,\\n      xend\\n    )\\n\\n  # Assign fill colors to drawn bars\\n  # Positive bars are gray with 70% transparency\\n  # Negative bars are gray with 30% transparency\\n  df &lt;- df %&gt;%\\n    mutate(\\n      fill = case_when(\\n        type == \\\&quot;divider\\\&quot; ~ NA_character_,\\n        Value &gt;= 0 ~ \\\&quot;gray70\\\&quot;,\\n        TRUE ~ \\\&quot;gray30\\\&quot;\\n      )\\n    )\\n\\n  # Format the bar labels\\n  # Currently zero decimal places\\n  # Negative bars have their labels to the left of the bar\\n  # Positive bars have their labels to the right of the bar\\n  # Negative bars don't use the minus symbol\\n  df_labels &lt;- df %&gt;%\\n    filter(type != \\\&quot;divider\\\&quot;) %&gt;%\\n    mutate(\\n      label = format(round(abs(Value), 0), nsmall = 0),\\n      label_x = if_else(Value &gt;= 0, end + 5, end - 5),\\n      hjust = if_else(Value &gt;= 0, 0, 1)\\n    )\\n\\n  # this will be used to extend the x-axis to allow space for bar labels\\n  # x_max &lt;- max(df_labels$label_x, na.rm = TRUE) + 100  # 10 is padding\\n\\n  # divider_ys is a numeric vector of vertical positions\\n  # at which horizontal lines will be drawn to separate\\n  # bars from one another at the user's discretion\\n  divider_ys &lt;- df %&gt;%\\n    mutate(idx = row_number()) %&gt;%\\n    filter(type == \\\&quot;divider\\\&quot;) %&gt;%\\n    mutate(\\n      prev_x = df$x[idx - 1],\\n      next_x = df$x[idx + 1],\\n      y = (prev_x + next_x) \/ 2\\n    ) %&gt;%\\n    pull(y) # extracts this tibble column to a vector\\n\\n  df_subtotals &lt;- df %&gt;% filter(type == \\\&quot;subtotal\\\&quot;)\\n\\n  # Apply a function over a list of integers from 1 to count of sub total rows\\n  df_sub_connectors &lt;- bind_rows(lapply(seq_len(nrow(df_subtotals)), function(i) {\\n    # Get the current row\\n    subtotal_row &lt;- df_subtotals[i, ]\\n    # Get the current group id\\n    group_id &lt;- subtotal_row$subtotal_group\\n    # Get the bar rows from df whose group id matches the current subtotal row\\n    bar_rows &lt;- df %&gt;% filter(type == \\\&quot;bar\\\&quot;, subtotal_group == group_id)\\n\\n    # If there are no such bars, then this subtotal is invalid (user incorrectly defined)\\n    if (nrow(bar_rows) &lt; 1) return(NULL)\\n\\n    # There are two lines which visually connect a subtotal with its components:\\n    # 1) A line from the bottom (i.e. left) of the first bar in the group\\n    # to the bottom (i.e. left) of the sub-total bar\\n    # 2) A line from the top (i.e. right) of the last bar in the group\\n    # to the top (i.e. right) of the sub-total bar\\n    first_bar &lt;- bar_rows[1, ]\\n    last_bar &lt;- bar_rows[nrow(bar_rows), ]\\n\\n    # Each sub-total produces two rows representing the lines connecting the \\n    # bars with their associated sub-total bar\\n    tibble(\\n      x = c(first_bar$start, last_bar$end),\\n      xend = c(first_bar$start, last_bar$end),\\n      y = c(first_bar$x - 0.3, last_bar$x - 0.3),\\n      yend = c(subtotal_row$x + 0.3, subtotal_row$x + 0.3)\\n    )\\n  }))\\n\\n  df_results &lt;- df %&gt;% filter(type == \\\&quot;result\\\&quot;)\\n\\n  # The logic here follows similar logic to the sub-total bars described above\\n  # the slight difference is that since a result is always from zero\\n  # only one connecting line is needed - it connects the top of the previous bar\\n  # (subtotal or otherwise) with the current result bar\\n  df_result_connectors &lt;- bind_rows(lapply(seq_len(nrow(df_results)), function(i) {\\n    result_row &lt;- df_results[i, ]\\n    if (result_row$x == 1) return(NULL)\\n\\n    prev_row &lt;- df %&gt;% filter(x == result_row$x - 1)\\n    if (nrow(prev_row) == 0) return(NULL)\\n\\n    tibble(\\n      x = prev_row$end,\\n      xend = result_row$end,\\n      y = prev_row$x - 0.3,\\n      yend = result_row$x + 0.3\\n    )\\n  }))\\n\\n  # This places all the coordinates of the three types of connecting lines\\n  # into a single tibble so they can all be drawn at once.\\n  df_connectors &lt;- bind_rows(df_lines, df_sub_connectors, df_result_connectors)\\n\\n  ggplot(df %&gt;% filter(type != \\\&quot;divider\\\&quot;)) +\\n    # draw the bars\\n    geom_rect(aes(ymin = x - 0.3, ymax = x + 0.3, xmin = start, xmax = end, fill = fill),\\n              color = NA) +\\n    # draw the connecting lines\\n    geom_segment(\\n      data = df_connectors,\\n      aes(x = x, xend = xend, y = y, yend = yend),\\n      color = \\\&quot;gray70\\\&quot;,\\n      linewidth = 0.2,\\n      inherit.aes = FALSE\\n    ) +\\n    # draw the bar labels\\n    geom_segment(data = df_labels,\\n                 aes(x = label_x, y = x, xend = label_x, yend = x),\\n                 color = \\\&quot;red\\\&quot;, linewidth = 0.2) +\\n    # draw the bar labels\\n    geom_text(data = df_labels,\\n              aes(x = label_x, y = x, label = label, hjust = hjust, fontface = ifelse(bold, \\\&quot;bold\\\&quot;, \\\&quot;plain\\\&quot;)),\\n              size = 3) +\\n    # draw the dividing lines\\n    geom_segment(\\n      data = tibble(y = divider_ys),\\n      aes(x = -Inf, xend = Inf, y = y, yend = y),\\n      linewidth = 0.2,\\n      color = \\\&quot;black\\\&quot;,\\n      inherit.aes = FALSE\\n    ) +\\n    # draw a vertical line at x=0\\n    geom_vline(xintercept = 0, color = \\\&quot;black\\\&quot;, linewidth = 0.2) +\\n    # ensure that the bars are all plotted on the y-axis\\n    # this has the effect of rotating the bar plot from vertical to horizontal bars\\n    scale_y_reverse(\\n      breaks = df$x[df$type != \\\&quot;divider\\\&quot;],\\n      labels = function(labs) {\\n        idx &lt;- match(labs, df$x)\\n        mapply(function(text, bold) {\\n          if (isTRUE(bold)) parse(text = paste0(\\\&quot;bold('\\\&quot;, text, \\\&quot;')\\\&quot;))\\n          else text\\n        }, df$`Line.Item`[idx], df$bold[idx])\\n      }\\n    ) +\\n    coord_cartesian(clip = \\\&quot;off\\\&quot;) +\\n    # scale_x_continuous(expand = expansion(mult = c(0, 0)), limits = c(0, x_max)) +\\n    scale_fill_identity() +\\n    labs(\\n      title = title,\\n      x = NULL,\\n      y = NULL\\n    ) +\\n    theme_minimal(base_size = 11) +\\n    theme(\\n      panel.grid = element_blank(),\\n      plot.title = element_text(hjust = 0.5, face = \\\&quot;bold\\\&quot;)\\n    )\\n}\\n\\nplot_ibcs_variance &lt;- function(\\n    df_raw,\\n    title = \\\&quot;Var.\\\&quot;,\\n    from_col = \\\&quot;Value1\\\&quot;,\\n    to_col = \\\&quot;Value2\\\&quot;,\\n    label_col = \\\&quot;Line.Item\\\&quot;,\\n    var_type = \\\&quot;abs\\\&quot;\\n) {\\n\\n  # Rename user-specified columns to fixed internal names\\n  df_raw &lt;- df_raw %&gt;%\\n    rename(\\n      Value1 = all_of(from_col),\\n      Value2 = all_of(to_col),\\n      `Line.Item` = all_of(label_col)\\n    )\\n\\n  cols &lt;- c(\\\&quot;position\\\&quot;, \\\&quot;type\\\&quot;, \\\&quot;bold\\\&quot;, \\\&quot;subtotal_group\\\&quot;, \\\&quot;Line.Item\\\&quot;, \\\&quot;invert\\\&quot;, \\\&quot;Value1\\\&quot;, \\\&quot;Value2\\\&quot;)\\n  df_raw &lt;- df_raw %&gt;% select(all_of(cols))\\n\\n  # Flag the rows that will be for plotting bars\\n  df &lt;- df_raw %&gt;% mutate(is_plot_row = type != \\\&quot;divider\\\&quot;)\\n\\n  # Assign vertical positions only to non-divider rows\\n  df$x[df$type != \\\&quot;divider\\\&quot;] &lt;- seq_len(sum(df$type != \\\&quot;divider\\\&quot;))\\n\\n  # Compute start\/end for all types\\n  # anchor is always zero for a variance chart, on all bar types (bar, subtotal and result)\\n  anchor &lt;- 0\\n  df &lt;- df %&gt;%\\n    mutate(\\n      end = if (var_type == \\\&quot;abs\\\&quot;) {\\n        (Value2 - Value1) * if_else(invert, -1, 1)\\n      } else {\\n        (100 * (Value2 - Value1) \/ Value1)\\n      },\\n      start = anchor\\n    )\\n\\n\\n\\n  for (i in seq_len(nrow(df))) {\\n    row_type &lt;- df$type[i]\\n    invert &lt;- df$invert[i]\\n    if (row_type == \\\&quot;subtotal\\\&quot;) {\\n      group_id &lt;- df$subtotal_group[i]\\n\\n      bar_rows &lt;- which(df$subtotal_group == group_id &amp; df$type == \\\&quot;bar\\\&quot;)\\n      if (length(bar_rows) &gt; 0) {\\n        val1 &lt;- sum(df$Value1[bar_rows], na.rm = TRUE)\\n        val2 &lt;- sum(df$Value2[bar_rows], na.rm = TRUE)\\n        df$Value1[i] &lt;- val1\\n        df$Value2[i] &lt;- val2\\n        df$end[i] = if (var_type == \\\&quot;abs\\\&quot;) {\\n          (val2 - val1) * if_else(invert, -1, 1)\\n        } else {\\n          (100 * (val2 - val1) \/ val1)\\n        }\\n      }\\n\\n    } else if (row_type == \\\&quot;result\\\&quot;) {\\n      # Get all rows above this one that are bars\\n      bar_rows_above &lt;- df[1:(i - 1), ] %&gt;% filter(type == \\\&quot;bar\\\&quot;)\\n      total_var &lt;- if (var_type == \\\&quot;abs\\\&quot;) {\\n        sum(bar_rows_above$end * if_else(bar_rows_above$invert, -1, 1), na.rm = TRUE)\\n      } else {\\n        val1 &lt;- sum(bar_rows_above$Value1)\\n        (100 * (sum(bar_rows_above$Value2) - val1) \/ val1) * if_else(invert, -1, 1)\\n      }\\n\\n      df$start[i] &lt;- anchor\\n      df$end[i] &lt;- total_var\\n\\n    }\\n  }\\n\\n  bad_color &lt;- \\\&quot;indianred3\\\&quot;   # softer than \\\&quot;red\\\&quot;\\n  good_color &lt;- \\\&quot;chartreuse3\\\&quot;  # softer than \\\&quot;green\\\&quot;\\n\\n  # Assign fill colors to drawn bars\\n  # Positive bars are gray with 70% transparency\\n  # Negative bars are gray with 30% transparency\\n  df &lt;- df %&gt;%\\n    mutate(\\n      fill = case_when(\\n        type == \\\&quot;divider\\\&quot; ~ NA_character_,\\n        is.na(end) ~ NA_character_,\\n        invert &amp; end &gt;= 0 ~ bad_color,       # Expense ↑ → bad\\n        invert &amp; end &lt; 0 ~ good_color,      # Expense ↓ → good\\n        !invert &amp; end &gt;= 0 ~ good_color,    # Income ↑ → good\\n        TRUE ~ bad_color                     # Income ↓ → bad\\n      )\\n    )\\n\\n\\n  # Format the bar labels\\n  # Currently zero decimal places\\n  # Negative bars have their labels to the left of the bar\\n  # Positive bars have their labels to the right of the bar\\n  # Negative bars don't use the minus symbol\\n  df_labels &lt;- df %&gt;%\\n    filter(type != \\\&quot;divider\\\&quot;) %&gt;%\\n    mutate(\\n      label = formatC(round(end, 0), format = \\\&quot;f\\\&quot;, digits = 0, flag = \\\&quot;+\\\&quot;),\\n      label_x = if_else(end &gt;= 0, end + 5, end - 5),\\n      hjust = if_else(end &gt;= 0, 0, 1)\\n    )\\n\\n  # this will be used to extend the x-axis to allow space for bar labels\\n  # x_max &lt;- max(df_labels$label_x, na.rm = TRUE) + 100  # 10 is padding\\n\\n  # divider_ys is a numeric vector of vertical positions\\n  # at which horizontal lines will be drawn to separate\\n  # bars from one another at the user's discretion\\n  divider_ys &lt;- df %&gt;%\\n    mutate(idx = row_number()) %&gt;%\\n    filter(type == \\\&quot;divider\\\&quot;) %&gt;%\\n    mutate(\\n      prev_x = df$x[idx - 1],\\n      next_x = df$x[idx + 1],\\n      y = (prev_x + next_x) \/ 2\\n    ) %&gt;%\\n    pull(y) # extracts this tibble column to a vector\\n\\n  ggplot(df %&gt;% filter(type != \\\&quot;divider\\\&quot;)) +\\n    # draw the bars\\n    geom_rect(aes(ymin = x - 0.3, ymax = x + 0.3, xmin = start, xmax = end, fill = fill),\\n              color = NA) +\\n    # draw the bar labels\\n    geom_text(data = df_labels,\\n              aes(x = label_x, y = x, label = label, hjust = hjust, fontface = ifelse(bold, \\\&quot;bold\\\&quot;, \\\&quot;plain\\\&quot;)),\\n              size = 3) +\\n    # draw the dividing lines\\n    geom_segment(\\n      data = tibble(y = divider_ys),\\n      aes(x = -Inf, xend = Inf, y = y, yend = y),\\n      linewidth = 0.2,\\n      color = \\\&quot;black\\\&quot;,\\n      inherit.aes = FALSE\\n    ) +\\n    # draw a vertical line at x=0\\n    geom_vline(xintercept = 0, color = \\\&quot;black\\\&quot;, linewidth = 0.2) +\\n    # ensure that the bars are all plotted on the y-axis\\n    # this has the effect of rotating the bar plot from vertical to horizontal bars\\n    scale_y_reverse(\\n      breaks = df$x[df$type != \\\&quot;divider\\\&quot;],\\n      labels = function(labs) {\\n        idx &lt;- match(labs, df$x)\\n        mapply(function(text, bold) {\\n          if (isTRUE(bold)) parse(text = paste0(\\\&quot;bold('\\\&quot;, text, \\\&quot;')\\\&quot;))\\n          else text\\n        }, df$`Line.Item`[idx], df$bold[idx])\\n      }\\n    ) +\\n    coord_cartesian(clip = \\\&quot;off\\\&quot;) +\\n    # scale_x_continuous(expand = expansion(mult = c(0, 0)), limits = c(0, x_max)) +\\n    scale_fill_identity() +\\n    labs(\\n      title = title,\\n      x = NULL,\\n      y = NULL\\n    ) +\\n    theme_minimal(base_size = 11) +\\n    theme(\\n      panel.grid = element_blank(),\\n      plot.title = element_text(hjust = 0.5, face = \\\&quot;bold\\\&quot;)\\n    )\\n}\\n\\n## Pre-built utility functions\\n\\n# Convert to tibble or data.frame\\nto_dataframe &lt;- function(x, as_tibble=TRUE) {\\n  if (inherits(x, \\\&quot;data.frame\\\&quot;)) {\\n    return(x)\\n  }\\n  if (!is_list_of_lists(x)) {\\n    stop(\\\&quot;Expected list of lists\\\&quot;)\\n  }\\n\\n  # Get column names from first row if available\\n  if (length(x) &gt; 1) {\\n    col_names &lt;- x[[1]]\\n    data_rows &lt;- x[-1]\\n  } else {\\n    data_rows &lt;- x\\n    col_names &lt;- paste0(\\\&quot;V\\\&quot;, seq_len(length(x[[1]])))\\n  }\\n  # Convert to column-wise list preserving data types\\n  cols &lt;- to_colwise_list(data_rows)\\n  names(cols) &lt;- col_names\\n\\n  # Create data frame preserving column types\\n  df &lt;- as.data.frame(cols, stringsAsFactors = FALSE)\\n\\n  if (as_tibble) {\\n    if (!requireNamespace(\\\&quot;dplyr\\\&quot;, quietly = TRUE)) {\\n      warning(\\\&quot;Package 'dplyr' needed for tibble conversion\\\&quot;)\\n    } else {\\n      return(dplyr::as_tibble(df))\\n    }\\n  }\\n  return(df)\\n}\\n\\n\\n# Convert to matrix\\nto_matrix &lt;- function(x) {\\n  if (is.matrix(x)) {\\n    return(x)\\n  }\\n  if (!is_list_of_lists(x)) {\\n    stop(\\\&quot;Expected list of lists\\\&quot;)\\n  }\\n  return(do.call(rbind, lapply(x, unlist)))\\n}\\n\\n# Convert to colwise list of vectors\\n# to_colwise_list &lt;- function(x) {\\n#   if (!is_list_of_lists(x)) {\\n#     stop(\\\&quot;Expected list of lists\\\&quot;)\\n#   }\\n\\n#   ncols &lt;- length(x[[1]])\\n#   print(ncols)\\n#   print(seq_len(ncols))\\n#   lapply(seq_len(ncols), function(j) {\\n#     print(j)\\n#     do.call(c, lapply(seq_along(x), function(i) x[[i]][[j]]))\\n#   })\\n# }\\n\\nto_colwise_list &lt;- function(x) {\\n  if (!is_list_of_lists(x)) {\\n    stop(\\\&quot;Expected list of lists\\\&quot;)\\n  }\\n\\n  ncols &lt;- length(x[[1]])\\n  lapply(seq_len(ncols), function(j) {\\n    do.call(c, lapply(seq_along(x), function(i) {\\n      val &lt;- x[[i]][[j]]\\n      if (is.null(val)) NA else val\\n    }))\\n  })\\n}\\n\\n\\n\\nis_list_of_lists &lt;- function(x) {\\n  is.list(x) &amp;&amp; length(x) &gt; 0 &amp;&amp; is.list(x[[1]])\\n}\\n\\n\&quot;}&quot;"/>
+    <we:property name="rworkerConfig" value="&quot;{\&quot;webrVersion\&quot;:\&quot;0.4.2\&quot;,\&quot;webrPackages\&quot;:[\&quot;jsonlite\&quot;,\&quot;sloop\&quot;,\&quot;tidyverse\&quot;,\&quot;patchwork\&quot;],\&quot;initCode\&quot;:\&quot;## Add imports\\nlibrary(tidyverse)\\nlibrary(patchwork)\\n\\n## Configuration\\noptions(warnPartialMatchDollar = TRUE)\\n\\n## Define functions\\nplot_ibcs_waterfall &lt;- function(\\n  df_raw,\\n  title = \\\&quot;Waterfall Chart\\\&quot;,\\n  value_col = \\\&quot;Value\\\&quot;,\\n  label_col = \\\&quot;Line.Item\\\&quot;\\n) {\\n\\n  # Rename user-specified columns to fixed internal names\\n  df_raw &lt;- df_raw %&gt;%\\n    rename(\\n      Value = all_of(value_col),\\n      `Line.Item` = all_of(label_col)\\n    )\\n\\n  cols &lt;- c(\\\&quot;position\\\&quot;, \\\&quot;type\\\&quot;, \\\&quot;bold\\\&quot;, \\\&quot;subtotal_group\\\&quot;, \\\&quot;Line.Item\\\&quot;, \\\&quot;Value\\\&quot;)\\n  df_raw &lt;- df_raw %&gt;% select(all_of(cols))\\n\\n  # Flag the rows that will be for plotting bars\\n  df &lt;- df_raw %&gt;% mutate(is_plot_row = type != \\\&quot;divider\\\&quot;)\\n\\n  # Assign vertical positions only to non-divider rows\\n  df$x[df$type != \\\&quot;divider\\\&quot;] &lt;- seq_len(sum(df$type != \\\&quot;divider\\\&quot;))\\n\\n  # Compute start\/end for all types\\n  anchor &lt;- 0\\n  for (i in seq_len(nrow(df))) {\\n    row_type &lt;- df$type[i]\\n\\n    if (row_type == \\\&quot;bar\\\&quot;) {\\n      df$start[i] &lt;- anchor\\n      df$end[i] &lt;- anchor + df$Value[i]\\n      anchor &lt;- df$end[i]\\n\\n    } else if (row_type == \\\&quot;subtotal\\\&quot;) {\\n      group_id &lt;- df$subtotal_group[i]\\n      bar_rows &lt;- which(df$subtotal_group == group_id &amp; df$type == \\\&quot;bar\\\&quot;)\\n      if (length(bar_rows) &gt; 0) {\\n        subtotal_value &lt;- sum(df$Value[bar_rows], na.rm = TRUE)\\n        df$Value[i] &lt;- subtotal_value\\n        group_start &lt;- df$start[bar_rows[1]]\\n        df$start[i] &lt;- group_start\\n        df$end[i] &lt;- group_start + subtotal_value\\n        anchor &lt;- df$end[i]\\n      }\\n\\n    } else if (row_type == \\\&quot;result\\\&quot;) {\\n      df$start[i] &lt;- 0\\n      df$end[i] &lt;- anchor\\n      df$Value[i] &lt;- anchor\\n      anchor &lt;- df$end[i]\\n    }\\n  }\\n\\n  # calculate the coordinates for non-subtotal and non-result connecting lines\\n  df_lines &lt;- df %&gt;%\\n    filter(type != \\\&quot;divider\\\&quot;) %&gt;%\\n    arrange(x) %&gt;%\\n    mutate(\\n      x_next = lead(x),\\n      xend = lead(start)\\n    ) %&gt;%\\n    filter(!is.na(x_next)) %&gt;%\\n    transmute(\\n      y = x - 0.3, # from the vertical top of the current bar\\n      yend = x_next + 0.3, # to the vertical bottom of the next bar\\n      x = xend,\\n      xend\\n    )\\n\\n  # Assign fill colors to drawn bars\\n  # Positive bars are gray with 70% transparency\\n  # Negative bars are gray with 30% transparency\\n  df &lt;- df %&gt;%\\n    mutate(\\n      fill = case_when(\\n        type == \\\&quot;divider\\\&quot; ~ NA_character_,\\n        Value &gt;= 0 ~ \\\&quot;gray70\\\&quot;,\\n        TRUE ~ \\\&quot;gray30\\\&quot;\\n      )\\n    )\\n\\n  # Format the bar labels\\n  # Currently zero decimal places\\n  # Negative bars have their labels to the left of the bar\\n  # Positive bars have their labels to the right of the bar\\n  # Negative bars don't use the minus symbol\\n  df_labels &lt;- df %&gt;%\\n    filter(type != \\\&quot;divider\\\&quot;) %&gt;%\\n    mutate(\\n      label = format(round(abs(Value), 0), nsmall = 0),\\n      label_x = if_else(Value &gt;= 0, end + 5, end - 5),\\n      hjust = if_else(Value &gt;= 0, 0, 1)\\n    )\\n\\n  # this will be used to extend the x-axis to allow space for bar labels\\n  # x_max &lt;- max(df_labels$label_x, na.rm = TRUE) + 100  # 10 is padding\\n\\n  # divider_ys is a numeric vector of vertical positions\\n  # at which horizontal lines will be drawn to separate\\n  # bars from one another at the user's discretion\\n  divider_ys &lt;- df %&gt;%\\n    mutate(idx = row_number()) %&gt;%\\n    filter(type == \\\&quot;divider\\\&quot;) %&gt;%\\n    mutate(\\n      prev_x = df$x[idx - 1],\\n      next_x = df$x[idx + 1],\\n      y = (prev_x + next_x) \/ 2\\n    ) %&gt;%\\n    pull(y) # extracts this tibble column to a vector\\n\\n  df_subtotals &lt;- df %&gt;% filter(type == \\\&quot;subtotal\\\&quot;)\\n\\n  # Apply a function over a list of integers from 1 to count of sub total rows\\n  df_sub_connectors &lt;- bind_rows(lapply(seq_len(nrow(df_subtotals)), function(i) {\\n    # Get the current row\\n    subtotal_row &lt;- df_subtotals[i, ]\\n    # Get the current group id\\n    group_id &lt;- subtotal_row$subtotal_group\\n    # Get the bar rows from df whose group id matches the current subtotal row\\n    bar_rows &lt;- df %&gt;% filter(type == \\\&quot;bar\\\&quot;, subtotal_group == group_id)\\n\\n    # If there are no such bars, then this subtotal is invalid (user incorrectly defined)\\n    if (nrow(bar_rows) &lt; 1) return(NULL)\\n\\n    # There are two lines which visually connect a subtotal with its components:\\n    # 1) A line from the bottom (i.e. left) of the first bar in the group\\n    # to the bottom (i.e. left) of the sub-total bar\\n    # 2) A line from the top (i.e. right) of the last bar in the group\\n    # to the top (i.e. right) of the sub-total bar\\n    first_bar &lt;- bar_rows[1, ]\\n    last_bar &lt;- bar_rows[nrow(bar_rows), ]\\n\\n    # Each sub-total produces two rows representing the lines connecting the \\n    # bars with their associated sub-total bar\\n    tibble(\\n      x = c(first_bar$start, last_bar$end),\\n      xend = c(first_bar$start, last_bar$end),\\n      y = c(first_bar$x - 0.3, last_bar$x - 0.3),\\n      yend = c(subtotal_row$x + 0.3, subtotal_row$x + 0.3)\\n    )\\n  }))\\n\\n  df_results &lt;- df %&gt;% filter(type == \\\&quot;result\\\&quot;)\\n\\n  # The logic here follows similar logic to the sub-total bars described above\\n  # the slight difference is that since a result is always from zero\\n  # only one connecting line is needed - it connects the top of the previous bar\\n  # (subtotal or otherwise) with the current result bar\\n  df_result_connectors &lt;- bind_rows(lapply(seq_len(nrow(df_results)), function(i) {\\n    result_row &lt;- df_results[i, ]\\n    if (result_row$x == 1) return(NULL)\\n\\n    prev_row &lt;- df %&gt;% filter(x == result_row$x - 1)\\n    if (nrow(prev_row) == 0) return(NULL)\\n\\n    tibble(\\n      x = prev_row$end,\\n      xend = result_row$end,\\n      y = prev_row$x - 0.3,\\n      yend = result_row$x + 0.3\\n    )\\n  }))\\n\\n  # This places all the coordinates of the three types of connecting lines\\n  # into a single tibble so they can all be drawn at once.\\n  df_connectors &lt;- bind_rows(df_lines, df_sub_connectors, df_result_connectors)\\n\\n  ggplot(df %&gt;% filter(type != \\\&quot;divider\\\&quot;)) +\\n    # draw the bars\\n    geom_rect(aes(ymin = x - 0.3, ymax = x + 0.3, xmin = start, xmax = end, fill = fill),\\n              color = NA) +\\n    # draw the connecting lines\\n    geom_segment(\\n      data = df_connectors,\\n      aes(x = x, xend = xend, y = y, yend = yend),\\n      color = \\\&quot;gray70\\\&quot;,\\n      linewidth = 0.2,\\n      inherit.aes = FALSE\\n    ) +\\n    # draw the bar labels\\n    geom_segment(data = df_labels,\\n                 aes(x = label_x, y = x, xend = label_x, yend = x),\\n                 color = \\\&quot;red\\\&quot;, linewidth = 0.2) +\\n    # draw the bar labels\\n    geom_text(data = df_labels,\\n              aes(x = label_x, y = x, label = label, hjust = hjust, fontface = ifelse(bold, \\\&quot;bold\\\&quot;, \\\&quot;plain\\\&quot;)),\\n              size = 3) +\\n    # draw the dividing lines\\n    geom_segment(\\n      data = tibble(y = divider_ys),\\n      aes(x = -Inf, xend = Inf, y = y, yend = y),\\n      linewidth = 0.2,\\n      color = \\\&quot;black\\\&quot;,\\n      inherit.aes = FALSE\\n    ) +\\n    # draw a vertical line at x=0\\n    geom_vline(xintercept = 0, color = \\\&quot;black\\\&quot;, linewidth = 0.2) +\\n    # ensure that the bars are all plotted on the y-axis\\n    # this has the effect of rotating the bar plot from vertical to horizontal bars\\n    scale_y_reverse(\\n      breaks = df$x[df$type != \\\&quot;divider\\\&quot;],\\n      labels = function(labs) {\\n        idx &lt;- match(labs, df$x)\\n        mapply(function(text, bold) {\\n          if (isTRUE(bold)) parse(text = paste0(\\\&quot;bold('\\\&quot;, text, \\\&quot;')\\\&quot;))\\n          else text\\n        }, df$`Line.Item`[idx], df$bold[idx])\\n      }\\n    ) +\\n    coord_cartesian(clip = \\\&quot;off\\\&quot;) +\\n    # scale_x_continuous(expand = expansion(mult = c(0, 0)), limits = c(0, x_max)) +\\n    scale_fill_identity() +\\n    labs(\\n      title = title,\\n      size = 15,\\n      x = NULL,\\n      y = NULL\\n    ) +\\n    theme_minimal(base_size = 11) +\\n    theme(\\n      panel.grid = element_blank(),\\n      plot.title.position = 'panel'\\n    )\\n}\\n\\nplot_ibcs_variance &lt;- function(\\n    df_raw,\\n    title = \\\&quot;Var.\\\&quot;,\\n    from_col = \\\&quot;Value1\\\&quot;,\\n    to_col = \\\&quot;Value2\\\&quot;,\\n    label_col = \\\&quot;Line.Item\\\&quot;,\\n    var_type = \\\&quot;abs\\\&quot;\\n) {\\n\\n  # Rename user-specified columns to fixed internal names\\n  df_raw &lt;- df_raw %&gt;%\\n    rename(\\n      Value1 = all_of(from_col),\\n      Value2 = all_of(to_col),\\n      `Line.Item` = all_of(label_col)\\n    )\\n\\n  cols &lt;- c(\\\&quot;position\\\&quot;, \\\&quot;type\\\&quot;, \\\&quot;bold\\\&quot;, \\\&quot;subtotal_group\\\&quot;, \\\&quot;Line.Item\\\&quot;, \\\&quot;invert\\\&quot;, \\\&quot;Value1\\\&quot;, \\\&quot;Value2\\\&quot;)\\n  df_raw &lt;- df_raw %&gt;% select(all_of(cols))\\n\\n  # Flag the rows that will be for plotting bars\\n  df &lt;- df_raw %&gt;% mutate(is_plot_row = type != \\\&quot;divider\\\&quot;)\\n\\n  # Assign vertical positions only to non-divider rows\\n  df$x[df$type != \\\&quot;divider\\\&quot;] &lt;- seq_len(sum(df$type != \\\&quot;divider\\\&quot;))\\n\\n  # Compute start\/end for all types\\n  # anchor is always zero for a variance chart, on all bar types (bar, subtotal and result)\\n  anchor &lt;- 0\\n  df &lt;- df %&gt;%\\n    mutate(\\n      end = if (var_type == \\\&quot;abs\\\&quot;) {\\n        (Value2 - Value1) * if_else(invert, -1, 1)\\n      } else {\\n        (100 * (Value2 - Value1) \/ Value1)\\n      },\\n      start = anchor\\n    )\\n\\n\\n\\n  for (i in seq_len(nrow(df))) {\\n    row_type &lt;- df$type[i]\\n    invert &lt;- df$invert[i]\\n    if (row_type == \\\&quot;subtotal\\\&quot;) {\\n      group_id &lt;- df$subtotal_group[i]\\n\\n      bar_rows &lt;- which(df$subtotal_group == group_id &amp; df$type == \\\&quot;bar\\\&quot;)\\n      if (length(bar_rows) &gt; 0) {\\n        val1 &lt;- sum(df$Value1[bar_rows], na.rm = TRUE)\\n        val2 &lt;- sum(df$Value2[bar_rows], na.rm = TRUE)\\n        df$Value1[i] &lt;- val1\\n        df$Value2[i] &lt;- val2\\n        df$end[i] = if (var_type == \\\&quot;abs\\\&quot;) {\\n          (val2 - val1) * if_else(invert, -1, 1)\\n        } else {\\n          (100 * (val2 - val1) \/ val1)\\n        }\\n      }\\n\\n    } else if (row_type == \\\&quot;result\\\&quot;) {\\n      # Get all rows above this one that are bars\\n      bar_rows_above &lt;- df[1:(i - 1), ] %&gt;% filter(type == \\\&quot;bar\\\&quot;)\\n      total_var &lt;- if (var_type == \\\&quot;abs\\\&quot;) {\\n        sum(bar_rows_above$end * if_else(bar_rows_above$invert, -1, 1), na.rm = TRUE)\\n      } else {\\n        val1 &lt;- sum(bar_rows_above$Value1)\\n        (100 * (sum(bar_rows_above$Value2) - val1) \/ val1) * if_else(invert, -1, 1)\\n      }\\n\\n      df$start[i] &lt;- anchor\\n      df$end[i] &lt;- total_var\\n\\n    }\\n  }\\n\\n  bad_color &lt;- \\\&quot;indianred3\\\&quot;   # softer than \\\&quot;red\\\&quot;\\n  good_color &lt;- \\\&quot;chartreuse3\\\&quot;  # softer than \\\&quot;green\\\&quot;\\n\\n  # Assign fill colors to drawn bars\\n  # Positive bars are gray with 70% transparency\\n  # Negative bars are gray with 30% transparency\\n  df &lt;- df %&gt;%\\n    mutate(\\n      fill = case_when(\\n        type == \\\&quot;divider\\\&quot; ~ NA_character_,\\n        is.na(end) ~ NA_character_,\\n        invert &amp; end &gt;= 0 ~ bad_color,       # Expense ↑ → bad\\n        invert &amp; end &lt; 0 ~ good_color,      # Expense ↓ → good\\n        !invert &amp; end &gt;= 0 ~ good_color,    # Income ↑ → good\\n        TRUE ~ bad_color                     # Income ↓ → bad\\n      )\\n    )\\n\\n\\n  # Format the bar labels\\n  # Currently zero decimal places\\n  # Negative bars have their labels to the left of the bar\\n  # Positive bars have their labels to the right of the bar\\n  # Negative bars don't use the minus symbol\\n  df_labels &lt;- df %&gt;%\\n    filter(type != \\\&quot;divider\\\&quot;) %&gt;%\\n    mutate(\\n      label = formatC(round(end, 0), format = \\\&quot;f\\\&quot;, digits = 0, flag = \\\&quot;+\\\&quot;),\\n      label_x = if_else(end &gt;= 0, end + 5, end - 5),\\n      hjust = if_else(end &gt;= 0, 0, 1)\\n    )\\n\\n  # this will be used to extend the x-axis to allow space for bar labels\\n  # x_max &lt;- max(df_labels$label_x, na.rm = TRUE) + 100  # 10 is padding\\n\\n  # divider_ys is a numeric vector of vertical positions\\n  # at which horizontal lines will be drawn to separate\\n  # bars from one another at the user's discretion\\n  divider_ys &lt;- df %&gt;%\\n    mutate(idx = row_number()) %&gt;%\\n    filter(type == \\\&quot;divider\\\&quot;) %&gt;%\\n    mutate(\\n      prev_x = df$x[idx - 1],\\n      next_x = df$x[idx + 1],\\n      y = (prev_x + next_x) \/ 2\\n    ) %&gt;%\\n    pull(y) # extracts this tibble column to a vector\\n\\n  ggplot(df %&gt;% filter(type != \\\&quot;divider\\\&quot;)) +\\n    # draw the bars\\n    geom_rect(aes(ymin = x - 0.3, ymax = x + 0.3, xmin = start, xmax = end, fill = fill),\\n              color = NA) +\\n    # draw the bar labels\\n    geom_text(data = df_labels,\\n              aes(x = label_x, y = x, label = label, hjust = hjust, fontface = ifelse(bold, \\\&quot;bold\\\&quot;, \\\&quot;plain\\\&quot;)),\\n              size = 3) +\\n    # draw the dividing lines\\n    geom_segment(\\n      data = tibble(y = divider_ys),\\n      aes(x = -Inf, xend = Inf, y = y, yend = y),\\n      linewidth = 0.2,\\n      color = \\\&quot;black\\\&quot;,\\n      inherit.aes = FALSE\\n    ) +\\n    # draw a vertical line at x=0\\n    geom_vline(xintercept = 0, color = \\\&quot;black\\\&quot;, linewidth = 0.2) +\\n    # ensure that the bars are all plotted on the y-axis\\n    # this has the effect of rotating the bar plot from vertical to horizontal bars\\n    scale_y_reverse(\\n      breaks = df$x[df$type != \\\&quot;divider\\\&quot;],\\n      labels = function(labs) {\\n        idx &lt;- match(labs, df$x)\\n        mapply(function(text, bold) {\\n          if (isTRUE(bold)) parse(text = paste0(\\\&quot;bold('\\\&quot;, text, \\\&quot;')\\\&quot;))\\n          else text\\n        }, df$`Line.Item`[idx], df$bold[idx])\\n      }\\n    ) +\\n    coord_cartesian(clip = \\\&quot;off\\\&quot;) +\\n    # scale_x_continuous(expand = expansion(mult = c(0, 0)), limits = c(0, x_max)) +\\n    scale_fill_identity() +\\n    labs(\\n      title = title,\\n      x = NULL,\\n      y = NULL\\n    ) +\\n    theme_minimal(base_size = 11) +\\n    theme(\\n      panel.grid = element_blank(),\\n      plot.title.position = 'panel'\\n    )\\n}\\n\\n## Pre-built utility functions\\n\\n# Convert to tibble or data.frame\\nto_dataframe &lt;- function(x, as_tibble=TRUE) {\\n  if (inherits(x, \\\&quot;data.frame\\\&quot;)) {\\n    return(x)\\n  }\\n  if (!is_list_of_lists(x)) {\\n    stop(\\\&quot;Expected list of lists\\\&quot;)\\n  }\\n\\n  # Get column names from first row if available\\n  if (length(x) &gt; 1) {\\n    col_names &lt;- x[[1]]\\n    data_rows &lt;- x[-1]\\n  } else {\\n    data_rows &lt;- x\\n    col_names &lt;- paste0(\\\&quot;V\\\&quot;, seq_len(length(x[[1]])))\\n  }\\n  # Convert to column-wise list preserving data types\\n  cols &lt;- to_colwise_list(data_rows)\\n  names(cols) &lt;- col_names\\n\\n  # Create data frame preserving column types\\n  df &lt;- as.data.frame(cols, stringsAsFactors = FALSE)\\n\\n  if (as_tibble) {\\n    if (!requireNamespace(\\\&quot;dplyr\\\&quot;, quietly = TRUE)) {\\n      warning(\\\&quot;Package 'dplyr' needed for tibble conversion\\\&quot;)\\n    } else {\\n      return(dplyr::as_tibble(df))\\n    }\\n  }\\n  return(df)\\n}\\n\\n\\n# Convert to matrix\\nto_matrix &lt;- function(x) {\\n  if (is.matrix(x)) {\\n    return(x)\\n  }\\n  if (!is_list_of_lists(x)) {\\n    stop(\\\&quot;Expected list of lists\\\&quot;)\\n  }\\n  return(do.call(rbind, lapply(x, unlist)))\\n}\\n\\n# Convert to colwise list of vectors\\n# to_colwise_list &lt;- function(x) {\\n#   if (!is_list_of_lists(x)) {\\n#     stop(\\\&quot;Expected list of lists\\\&quot;)\\n#   }\\n\\n#   ncols &lt;- length(x[[1]])\\n#   print(ncols)\\n#   print(seq_len(ncols))\\n#   lapply(seq_len(ncols), function(j) {\\n#     print(j)\\n#     do.call(c, lapply(seq_along(x), function(i) x[[i]][[j]]))\\n#   })\\n# }\\n\\nto_colwise_list &lt;- function(x) {\\n  if (!is_list_of_lists(x)) {\\n    stop(\\\&quot;Expected list of lists\\\&quot;)\\n  }\\n\\n  ncols &lt;- length(x[[1]])\\n  lapply(seq_len(ncols), function(j) {\\n    do.call(c, lapply(seq_along(x), function(i) {\\n      val &lt;- x[[i]][[j]]\\n      if (is.null(val)) NA else val\\n    }))\\n  })\\n}\\n\\n\\n\\nis_list_of_lists &lt;- function(x) {\\n  is.list(x) &amp;&amp; length(x) &gt; 0 &amp;&amp; is.list(x[[1]])\\n}\\n\\n\&quot;}&quot;"/>
   </we:properties>
   <we:bindings>
     <we:binding id="pyscript_a970bdb0-b52c-4e67-b5b3-96823e097d1f" type="matrix" appref="{E7B16A11-FC0F-40D7-8C7F-63DFEB259E62}"/>
@@ -794,7 +794,7 @@
   <dimension ref="B1:I34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -896,37 +896,47 @@
       <c r="C6" t="e" cm="1" vm="5">
         <f t="array" ref="C6">_xldudf_ANACONDA_CODE("r", "### Do Not Edit this formula directly. Use Anaconda Code to modify.
 data &lt;- to_dataframe(REF($P3$))
+theming &lt;- theme(
+  axis.text.y = element_blank(), 
+  axis.text.x = element_blank(),
+  plot.title.position = 'plot'
+  )
 py &lt;- plot_ibcs_waterfall(
-  df_raw = data,
+  df_r"&amp;"aw = data,
   title = ""PY"",
   value_col = ""PY"",
   label_col = ""Line.Item""
 )+ theme(axis.text.x = element_blank())
-c"&amp;"y &lt;- plot_ibcs_waterfall(
+cy &lt;- plot_ibcs_waterfall(
   df_raw = data,
   title = ""Actuals"",
   value_col = ""AC"",
   label_col = ""Line.Item""
-) + theme(axis.text.y = element_blank(), axis.text.x = element_blank())
-var_abs &lt;- plot_ibcs_variance(
+) + theming
+var_a"&amp;"bs &lt;- plot_ibcs_variance(
   df_raw = data,
-  title = ""Var."&amp;""",
+  title = ""Var."",
   from_col = ""PY"",
   to_col = ""AC"",
   label_col = ""Line.Item"",
   var_type = ""abs""
-) + theme(axis.text.y = element_blank(), axis.text.x = element_blank())
+) + theming
 var_pct &lt;- plot_ibcs_variance(
   df_raw = data,
   title = ""%"",
   from_col = ""PY"",
- "&amp;" to_col = ""AC"",
+  "&amp;"to_col = ""AC"",
   label_col = ""Line.Item"",
   var_type = ""pct""
-) + theme(axis.text.y = element_blank(), axis.text.x = element_blank())
+) + theming
 library(patchwork)
 (py | cy | plot_spacer() | var_abs | var_pct | plot_spacer()) + 
-  plot_layout(widths = c(1, 1"&amp;", 0.1, 0.5, 0.5, 0.1))
+  plot_layout(widths = c(1, 1, 0.1, 0.5, 0.5, 0.1)) + 
+  plot_annotation(
+  title = 'Curre"&amp;"nt year actuals vs. previous year',
+  subtitle = 'Variances shown in absolute and relative % terms',
+  caption = 'Produced with plotibcs and patchwork'
+)
 ", 2, dat[#All])</f>
         <v>#VALUE!</v>
       </c>
